--- a/data/supplementary/monthly_state_ui.xlsx
+++ b/data/supplementary/monthly_state_ui.xlsx
@@ -3902,7 +3902,7 @@
         <v>1063136</v>
       </c>
       <c r="E98">
-        <v>210652</v>
+        <v>210657</v>
       </c>
       <c r="F98">
         <v>15063795</v>
@@ -3911,7 +3911,7 @@
         <v>12152139</v>
       </c>
       <c r="H98">
-        <v>904877</v>
+        <v>904865</v>
       </c>
       <c r="I98">
         <v>104.65</v>
@@ -3926,13 +3926,13 @@
         <v>79.33</v>
       </c>
       <c r="M98">
-        <v>8643099</v>
+        <v>8643086</v>
       </c>
       <c r="N98">
         <v>7816720</v>
       </c>
       <c r="O98">
-        <v>2726116</v>
+        <v>2726121</v>
       </c>
     </row>
     <row r="99">
@@ -3970,13 +3970,13 @@
         <v>79.84</v>
       </c>
       <c r="M99">
-        <v>8586186</v>
+        <v>8586174</v>
       </c>
       <c r="N99">
         <v>7675188</v>
       </c>
       <c r="O99">
-        <v>2658756</v>
+        <v>2658761</v>
       </c>
     </row>
     <row r="100">
@@ -4014,13 +4014,13 @@
         <v>80.49</v>
       </c>
       <c r="M100">
-        <v>8552559</v>
+        <v>8552547</v>
       </c>
       <c r="N100">
         <v>7655474</v>
       </c>
       <c r="O100">
-        <v>2569586</v>
+        <v>2569591</v>
       </c>
     </row>
     <row r="101">
@@ -4058,13 +4058,13 @@
         <v>80.95</v>
       </c>
       <c r="M101">
-        <v>8496283</v>
+        <v>8496270</v>
       </c>
       <c r="N101">
         <v>7630816</v>
       </c>
       <c r="O101">
-        <v>2496702</v>
+        <v>2496707</v>
       </c>
     </row>
     <row r="102">
@@ -4102,13 +4102,13 @@
         <v>81.34999999999999</v>
       </c>
       <c r="M102">
-        <v>8469985</v>
+        <v>8469973</v>
       </c>
       <c r="N102">
         <v>7605385</v>
       </c>
       <c r="O102">
-        <v>2447758</v>
+        <v>2447763</v>
       </c>
     </row>
     <row r="103">
@@ -4146,13 +4146,13 @@
         <v>81.74</v>
       </c>
       <c r="M103">
-        <v>8390324</v>
+        <v>8390311</v>
       </c>
       <c r="N103">
         <v>7610191</v>
       </c>
       <c r="O103">
-        <v>2369791</v>
+        <v>2369796</v>
       </c>
     </row>
     <row r="104">
@@ -4190,13 +4190,13 @@
         <v>82.12000000000001</v>
       </c>
       <c r="M104">
-        <v>8353749</v>
+        <v>8353737</v>
       </c>
       <c r="N104">
         <v>7610967</v>
       </c>
       <c r="O104">
-        <v>2306244</v>
+        <v>2306249</v>
       </c>
     </row>
     <row r="105">
@@ -4234,13 +4234,13 @@
         <v>82.49</v>
       </c>
       <c r="M105">
-        <v>8358626</v>
+        <v>8358614</v>
       </c>
       <c r="N105">
         <v>7677889</v>
       </c>
       <c r="O105">
-        <v>2230957</v>
+        <v>2230962</v>
       </c>
     </row>
     <row r="106">
@@ -4278,13 +4278,13 @@
         <v>82.78</v>
       </c>
       <c r="M106">
-        <v>8313969</v>
+        <v>8313956</v>
       </c>
       <c r="N106">
         <v>7636142</v>
       </c>
       <c r="O106">
-        <v>2171015</v>
+        <v>2171020</v>
       </c>
     </row>
     <row r="107">
@@ -4322,13 +4322,13 @@
         <v>83.03</v>
       </c>
       <c r="M107">
-        <v>8307264</v>
+        <v>8307251</v>
       </c>
       <c r="N107">
         <v>7633029</v>
       </c>
       <c r="O107">
-        <v>2121243</v>
+        <v>2121248</v>
       </c>
     </row>
     <row r="108">
@@ -4366,13 +4366,13 @@
         <v>83.3</v>
       </c>
       <c r="M108">
-        <v>8263913</v>
+        <v>8263900</v>
       </c>
       <c r="N108">
         <v>7603593</v>
       </c>
       <c r="O108">
-        <v>2073368</v>
+        <v>2073373</v>
       </c>
     </row>
     <row r="109">
@@ -4410,13 +4410,13 @@
         <v>83.67</v>
       </c>
       <c r="M109">
-        <v>8212247</v>
+        <v>8212235</v>
       </c>
       <c r="N109">
         <v>7568310</v>
       </c>
       <c r="O109">
-        <v>2030430</v>
+        <v>2030435</v>
       </c>
     </row>
     <row r="110">
@@ -5407,7 +5407,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>938621</v>
+        <v>936159</v>
       </c>
       <c r="I132">
         <v>94</v>
@@ -5419,10 +5419,10 @@
         <v>14.67</v>
       </c>
       <c r="L132">
-        <v>99.06999999999999</v>
+        <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14070168</v>
+        <v>14067706</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -5463,10 +5463,10 @@
         <v>14.91</v>
       </c>
       <c r="L133">
-        <v>99.55</v>
+        <v>99.54000000000001</v>
       </c>
       <c r="M133">
-        <v>14472620</v>
+        <v>14470158</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -5507,10 +5507,10 @@
         <v>15.02</v>
       </c>
       <c r="L134">
-        <v>100.22</v>
+        <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14608256</v>
+        <v>14605794</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -5551,10 +5551,10 @@
         <v>15.11</v>
       </c>
       <c r="L135">
-        <v>100.74</v>
+        <v>100.73</v>
       </c>
       <c r="M135">
-        <v>14693692</v>
+        <v>14691230</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -5595,10 +5595,10 @@
         <v>15.16</v>
       </c>
       <c r="L136">
-        <v>101.33</v>
+        <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14870152</v>
+        <v>14867690</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -5639,10 +5639,10 @@
         <v>15.27</v>
       </c>
       <c r="L137">
-        <v>101.85</v>
+        <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14864670</v>
+        <v>14862208</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -5683,10 +5683,10 @@
         <v>15.52</v>
       </c>
       <c r="L138">
-        <v>102.27</v>
+        <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14674061</v>
+        <v>14671600</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -5727,10 +5727,10 @@
         <v>15.69</v>
       </c>
       <c r="L139">
-        <v>102.63</v>
+        <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14470287</v>
+        <v>14467825</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -5747,7 +5747,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823419</v>
+        <v>823660</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -5771,13 +5771,13 @@
         <v>15.74</v>
       </c>
       <c r="L140">
-        <v>103.1</v>
+        <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14135066</v>
+        <v>14132605</v>
       </c>
       <c r="N140">
-        <v>8935255</v>
+        <v>8935496</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -5815,13 +5815,13 @@
         <v>15.66</v>
       </c>
       <c r="L141">
-        <v>103.61</v>
+        <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13897363</v>
+        <v>13894901</v>
       </c>
       <c r="N141">
-        <v>8781770</v>
+        <v>8782011</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -5859,13 +5859,13 @@
         <v>15.43</v>
       </c>
       <c r="L142">
-        <v>104.17</v>
+        <v>104.15</v>
       </c>
       <c r="M142">
-        <v>13753270</v>
+        <v>13750808</v>
       </c>
       <c r="N142">
-        <v>8776038</v>
+        <v>8776279</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -5903,13 +5903,13 @@
         <v>15.1</v>
       </c>
       <c r="L143">
-        <v>104.77</v>
+        <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13625138</v>
+        <v>13622677</v>
       </c>
       <c r="N143">
-        <v>8836480</v>
+        <v>8836721</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -5944,7 +5944,7 @@
         <v>32.12</v>
       </c>
       <c r="K144">
-        <v>14.82</v>
+        <v>14.81</v>
       </c>
       <c r="L144">
         <v>105.47</v>
@@ -5953,7 +5953,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042288</v>
+        <v>9042529</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -5997,7 +5997,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9394908</v>
+        <v>9395149</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -6041,7 +6041,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9715772</v>
+        <v>9716013</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -6085,7 +6085,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916603</v>
+        <v>9916844</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -6117,7 +6117,7 @@
         <v>117.44</v>
       </c>
       <c r="J148">
-        <v>33.96</v>
+        <v>33.95</v>
       </c>
       <c r="K148">
         <v>14.25</v>
@@ -6129,7 +6129,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176236</v>
+        <v>10176477</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -6173,7 +6173,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10401817</v>
+        <v>10402058</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -6217,7 +6217,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586217</v>
+        <v>10586458</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -6261,7 +6261,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834130</v>
+        <v>10834371</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -7771,7 +7771,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590194</v>
+        <v>590478</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -7783,7 +7783,7 @@
         <v>9067094</v>
       </c>
       <c r="H186">
-        <v>1208839</v>
+        <v>1208914</v>
       </c>
       <c r="I186">
         <v>126.92</v>
@@ -7798,10 +7798,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889628</v>
+        <v>13889703</v>
       </c>
       <c r="N186">
-        <v>8210999</v>
+        <v>8211283</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -7842,10 +7842,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13965861</v>
+        <v>13965936</v>
       </c>
       <c r="N187">
-        <v>8230990</v>
+        <v>8231274</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -7886,10 +7886,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177094</v>
+        <v>14177170</v>
       </c>
       <c r="N188">
-        <v>8310776</v>
+        <v>8311060</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -7906,7 +7906,7 @@
         <v>631919</v>
       </c>
       <c r="E189">
-        <v>204872</v>
+        <v>204866</v>
       </c>
       <c r="F189">
         <v>10180433</v>
@@ -7930,13 +7930,13 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260402</v>
+        <v>14260477</v>
       </c>
       <c r="N189">
-        <v>8315136</v>
+        <v>8315420</v>
       </c>
       <c r="O189">
-        <v>2521457</v>
+        <v>2521451</v>
       </c>
     </row>
     <row r="190">
@@ -7950,7 +7950,7 @@
         <v>509987</v>
       </c>
       <c r="E190">
-        <v>181929</v>
+        <v>181947</v>
       </c>
       <c r="F190">
         <v>9164177</v>
@@ -7974,13 +7974,13 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14422729</v>
+        <v>14422805</v>
       </c>
       <c r="N190">
-        <v>8370717</v>
+        <v>8371001</v>
       </c>
       <c r="O190">
-        <v>2540048</v>
+        <v>2540060</v>
       </c>
     </row>
     <row r="191">
@@ -7991,10 +7991,10 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573597</v>
+        <v>573529</v>
       </c>
       <c r="E191">
-        <v>207557</v>
+        <v>207683</v>
       </c>
       <c r="F191">
         <v>9966680</v>
@@ -8003,7 +8003,7 @@
         <v>8715190</v>
       </c>
       <c r="H191">
-        <v>1073164</v>
+        <v>1073060</v>
       </c>
       <c r="I191">
         <v>129.49</v>
@@ -8018,13 +8018,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14527990</v>
+        <v>14527962</v>
       </c>
       <c r="N191">
-        <v>8368288</v>
+        <v>8368504</v>
       </c>
       <c r="O191">
-        <v>2550961</v>
+        <v>2551099</v>
       </c>
     </row>
     <row r="192">
@@ -8062,13 +8062,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532765</v>
+        <v>14532737</v>
       </c>
       <c r="N192">
-        <v>8289862</v>
+        <v>8290078</v>
       </c>
       <c r="O192">
-        <v>2547583</v>
+        <v>2547721</v>
       </c>
     </row>
     <row r="193">
@@ -8106,13 +8106,13 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761288</v>
+        <v>14761260</v>
       </c>
       <c r="N193">
-        <v>8364954</v>
+        <v>8365170</v>
       </c>
       <c r="O193">
-        <v>2572231</v>
+        <v>2572369</v>
       </c>
     </row>
     <row r="194">
@@ -8150,13 +8150,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14843969</v>
+        <v>14843941</v>
       </c>
       <c r="N194">
-        <v>8387841</v>
+        <v>8388057</v>
       </c>
       <c r="O194">
-        <v>2570031</v>
+        <v>2570169</v>
       </c>
     </row>
     <row r="195">
@@ -8194,13 +8194,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14888900</v>
+        <v>14888871</v>
       </c>
       <c r="N195">
-        <v>8325313</v>
+        <v>8325529</v>
       </c>
       <c r="O195">
-        <v>2570920</v>
+        <v>2571058</v>
       </c>
     </row>
     <row r="196">
@@ -8238,13 +8238,13 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967582</v>
+        <v>14967553</v>
       </c>
       <c r="N196">
-        <v>8319809</v>
+        <v>8320025</v>
       </c>
       <c r="O196">
-        <v>2562994</v>
+        <v>2563132</v>
       </c>
     </row>
     <row r="197">
@@ -8282,13 +8282,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089726</v>
+        <v>15089698</v>
       </c>
       <c r="N197">
-        <v>8341273</v>
+        <v>8341489</v>
       </c>
       <c r="O197">
-        <v>2566449</v>
+        <v>2566587</v>
       </c>
     </row>
     <row r="198">
@@ -8326,13 +8326,13 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141612</v>
+        <v>15141509</v>
       </c>
       <c r="N198">
-        <v>8330357</v>
+        <v>8330289</v>
       </c>
       <c r="O198">
-        <v>2567250</v>
+        <v>2567388</v>
       </c>
     </row>
     <row r="199">
@@ -8346,7 +8346,7 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214656</v>
+        <v>214631</v>
       </c>
       <c r="F199">
         <v>10193543</v>
@@ -8370,13 +8370,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309156</v>
+        <v>15309053</v>
       </c>
       <c r="N199">
-        <v>8356605</v>
+        <v>8356537</v>
       </c>
       <c r="O199">
-        <v>2587830</v>
+        <v>2587943</v>
       </c>
     </row>
     <row r="200">
@@ -8390,7 +8390,7 @@
         <v>735606</v>
       </c>
       <c r="E200">
-        <v>247052</v>
+        <v>247051</v>
       </c>
       <c r="F200">
         <v>11601024</v>
@@ -8414,13 +8414,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440766</v>
+        <v>15440662</v>
       </c>
       <c r="N200">
-        <v>8350624</v>
+        <v>8350556</v>
       </c>
       <c r="O200">
-        <v>2599884</v>
+        <v>2599996</v>
       </c>
     </row>
     <row r="201">
@@ -8434,7 +8434,7 @@
         <v>649662</v>
       </c>
       <c r="E201">
-        <v>210448</v>
+        <v>210443</v>
       </c>
       <c r="F201">
         <v>10189513</v>
@@ -8458,13 +8458,13 @@
         <v>133.49</v>
       </c>
       <c r="M201">
-        <v>15510540</v>
+        <v>15510437</v>
       </c>
       <c r="N201">
-        <v>8368367</v>
+        <v>8368299</v>
       </c>
       <c r="O201">
-        <v>2605460</v>
+        <v>2605573</v>
       </c>
     </row>
     <row r="202">
@@ -8499,16 +8499,16 @@
         <v>14.46</v>
       </c>
       <c r="L202">
-        <v>134.05</v>
+        <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673850</v>
+        <v>15673747</v>
       </c>
       <c r="N202">
-        <v>8381924</v>
+        <v>8381856</v>
       </c>
       <c r="O202">
-        <v>2635390</v>
+        <v>2635485</v>
       </c>
     </row>
     <row r="203">
@@ -8552,7 +8552,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2651006</v>
+        <v>2650975</v>
       </c>
     </row>
     <row r="204">
@@ -8596,7 +8596,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658828</v>
+        <v>2658797</v>
       </c>
     </row>
     <row r="205">
@@ -8640,7 +8640,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687377</v>
+        <v>2687346</v>
       </c>
     </row>
     <row r="206">
@@ -8684,7 +8684,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682431</v>
+        <v>2682400</v>
       </c>
     </row>
     <row r="207">
@@ -8728,7 +8728,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694782</v>
+        <v>2694751</v>
       </c>
     </row>
     <row r="208">
@@ -8772,7 +8772,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719365</v>
+        <v>2719334</v>
       </c>
     </row>
     <row r="209">
@@ -8816,7 +8816,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707807</v>
+        <v>2707776</v>
       </c>
     </row>
     <row r="210">
@@ -8860,7 +8860,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680372</v>
+        <v>2680341</v>
       </c>
     </row>
     <row r="211">
@@ -8904,7 +8904,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671984</v>
+        <v>2671978</v>
       </c>
     </row>
     <row r="212">
@@ -8948,7 +8948,7 @@
         <v>7781838</v>
       </c>
       <c r="O212">
-        <v>2637241</v>
+        <v>2637236</v>
       </c>
     </row>
     <row r="213">
@@ -27091,22 +27091,22 @@
         <v>14100.6</v>
       </c>
       <c r="D609">
-        <v>1322868</v>
+        <v>1322867</v>
       </c>
       <c r="E609">
-        <v>1066651</v>
+        <v>1066604</v>
       </c>
       <c r="F609">
-        <v>63219388</v>
+        <v>63219468</v>
       </c>
       <c r="G609">
-        <v>56553417</v>
+        <v>56553382</v>
       </c>
       <c r="H609">
-        <v>16422543</v>
+        <v>16358572</v>
       </c>
       <c r="I609">
-        <v>305.01</v>
+        <v>303.9</v>
       </c>
       <c r="J609">
         <v>80.7</v>
@@ -27115,16 +27115,16 @@
         <v>12.98</v>
       </c>
       <c r="L609">
-        <v>322.18</v>
+        <v>322.02</v>
       </c>
       <c r="M609">
-        <v>117268451</v>
+        <v>117204480</v>
       </c>
       <c r="N609">
-        <v>29141307</v>
+        <v>29141306</v>
       </c>
       <c r="O609">
-        <v>4115469</v>
+        <v>4115422</v>
       </c>
     </row>
     <row r="610">
@@ -27138,22 +27138,22 @@
         <v>12431.1</v>
       </c>
       <c r="D610">
-        <v>913723</v>
+        <v>913791</v>
       </c>
       <c r="E610">
-        <v>3056627</v>
+        <v>3056341</v>
       </c>
       <c r="F610">
-        <v>49205838</v>
+        <v>49206838</v>
       </c>
       <c r="G610">
-        <v>46081352</v>
+        <v>46146973</v>
       </c>
       <c r="H610">
-        <v>13615883</v>
+        <v>13636573</v>
       </c>
       <c r="I610">
-        <v>311.57</v>
+        <v>311.59</v>
       </c>
       <c r="J610">
         <v>109.42</v>
@@ -27162,16 +27162,16 @@
         <v>14.09</v>
       </c>
       <c r="L610">
-        <v>320.42</v>
+        <v>320.27</v>
       </c>
       <c r="M610">
-        <v>128940272</v>
+        <v>128896991</v>
       </c>
       <c r="N610">
-        <v>29743840</v>
+        <v>29743907</v>
       </c>
       <c r="O610">
-        <v>7032859</v>
+        <v>7032526</v>
       </c>
     </row>
     <row r="611">
@@ -27179,46 +27179,46 @@
         <v>44135</v>
       </c>
       <c r="B611">
-        <v>3458181</v>
+        <v>3454273</v>
       </c>
       <c r="C611">
         <v>7612.8</v>
       </c>
       <c r="D611">
-        <v>762398</v>
+        <v>762364</v>
       </c>
       <c r="E611">
-        <v>2435769</v>
+        <v>2435546</v>
       </c>
       <c r="F611">
-        <v>32122815</v>
+        <v>32123268</v>
       </c>
       <c r="G611">
-        <v>28461317</v>
+        <v>28459956</v>
       </c>
       <c r="H611">
-        <v>8420484</v>
+        <v>8377585</v>
       </c>
       <c r="I611">
-        <v>317.85</v>
+        <v>316.25</v>
       </c>
       <c r="J611">
-        <v>51.04</v>
+        <v>51.03</v>
       </c>
       <c r="K611">
         <v>14.67</v>
       </c>
       <c r="L611">
-        <v>319.6</v>
+        <v>319.36</v>
       </c>
       <c r="M611">
-        <v>135450766</v>
+        <v>135364585</v>
       </c>
       <c r="N611">
-        <v>30141866</v>
+        <v>30141899</v>
       </c>
       <c r="O611">
-        <v>9327008</v>
+        <v>9326452</v>
       </c>
     </row>
     <row r="612">
@@ -27256,16 +27256,16 @@
         <v>15.05</v>
       </c>
       <c r="L612">
-        <v>319.42</v>
+        <v>319.19</v>
       </c>
       <c r="M612">
-        <v>140326519</v>
+        <v>140240338</v>
       </c>
       <c r="N612">
-        <v>30517937</v>
+        <v>30517970</v>
       </c>
       <c r="O612">
-        <v>10528997</v>
+        <v>10528441</v>
       </c>
     </row>
     <row r="613">
@@ -27273,46 +27273,46 @@
         <v>44196</v>
       </c>
       <c r="B613">
-        <v>4246221</v>
+        <v>4226107</v>
       </c>
       <c r="C613">
         <v>5655.4</v>
       </c>
       <c r="D613">
-        <v>877521</v>
+        <v>874957</v>
       </c>
       <c r="E613">
-        <v>1043499</v>
+        <v>1042565</v>
       </c>
       <c r="F613">
-        <v>23110264</v>
+        <v>23050860</v>
       </c>
       <c r="G613">
-        <v>20442000</v>
+        <v>20380363</v>
       </c>
       <c r="H613">
-        <v>6419920</v>
+        <v>6405711</v>
       </c>
       <c r="I613">
-        <v>338.76</v>
+        <v>339.09</v>
       </c>
       <c r="J613">
-        <v>43.1</v>
+        <v>43.09</v>
       </c>
       <c r="K613">
         <v>15.32</v>
       </c>
       <c r="L613">
-        <v>319.23</v>
+        <v>319.02</v>
       </c>
       <c r="M613">
-        <v>144067091</v>
+        <v>143966702</v>
       </c>
       <c r="N613">
-        <v>30834021</v>
+        <v>30831490</v>
       </c>
       <c r="O613">
-        <v>11413585</v>
+        <v>11412095</v>
       </c>
     </row>
   </sheetData>

--- a/data/supplementary/monthly_state_ui.xlsx
+++ b/data/supplementary/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O613"/>
+  <dimension ref="A1:O614"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27315,6 +27315,53 @@
         <v>11412095</v>
       </c>
     </row>
+    <row r="614">
+      <c r="A614" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B614">
+        <v>4630041</v>
+      </c>
+      <c r="C614">
+        <v>6468.066666666667</v>
+      </c>
+      <c r="D614">
+        <v>942953</v>
+      </c>
+      <c r="E614">
+        <v>1602667.666666667</v>
+      </c>
+      <c r="F614">
+        <v>23069341</v>
+      </c>
+      <c r="G614">
+        <v>18036771</v>
+      </c>
+      <c r="H614">
+        <v>5782524</v>
+      </c>
+      <c r="I614">
+        <v>345.31</v>
+      </c>
+      <c r="J614">
+        <v>42.96</v>
+      </c>
+      <c r="K614">
+        <v>15.55</v>
+      </c>
+      <c r="L614">
+        <v>318.84</v>
+      </c>
+      <c r="M614">
+        <v>146802057</v>
+      </c>
+      <c r="N614">
+        <v>31037950</v>
+      </c>
+      <c r="O614">
+        <v>12103326</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/supplementary/monthly_state_ui.xlsx
+++ b/data/supplementary/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O614"/>
+  <dimension ref="A1:O615"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3911,7 +3911,7 @@
         <v>12152139</v>
       </c>
       <c r="H98">
-        <v>904865</v>
+        <v>904864</v>
       </c>
       <c r="I98">
         <v>104.65</v>
@@ -3970,7 +3970,7 @@
         <v>79.84</v>
       </c>
       <c r="M99">
-        <v>8586174</v>
+        <v>8586173</v>
       </c>
       <c r="N99">
         <v>7675188</v>
@@ -4014,7 +4014,7 @@
         <v>80.49</v>
       </c>
       <c r="M100">
-        <v>8552547</v>
+        <v>8552546</v>
       </c>
       <c r="N100">
         <v>7655474</v>
@@ -4102,7 +4102,7 @@
         <v>81.34999999999999</v>
       </c>
       <c r="M102">
-        <v>8469973</v>
+        <v>8469972</v>
       </c>
       <c r="N102">
         <v>7605385</v>
@@ -4190,7 +4190,7 @@
         <v>82.12000000000001</v>
       </c>
       <c r="M104">
-        <v>8353737</v>
+        <v>8353736</v>
       </c>
       <c r="N104">
         <v>7610967</v>
@@ -4231,10 +4231,10 @@
         <v>13.57</v>
       </c>
       <c r="L105">
-        <v>82.49</v>
+        <v>82.48</v>
       </c>
       <c r="M105">
-        <v>8358614</v>
+        <v>8358613</v>
       </c>
       <c r="N105">
         <v>7677889</v>
@@ -4410,7 +4410,7 @@
         <v>83.67</v>
       </c>
       <c r="M109">
-        <v>8212235</v>
+        <v>8212234</v>
       </c>
       <c r="N109">
         <v>7568310</v>
@@ -5407,7 +5407,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>936159</v>
+        <v>935885</v>
       </c>
       <c r="I132">
         <v>94</v>
@@ -5422,7 +5422,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14067706</v>
+        <v>14067432</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -5463,10 +5463,10 @@
         <v>14.91</v>
       </c>
       <c r="L133">
-        <v>99.54000000000001</v>
+        <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14470158</v>
+        <v>14469885</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -5510,7 +5510,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605794</v>
+        <v>14605520</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -5551,10 +5551,10 @@
         <v>15.11</v>
       </c>
       <c r="L135">
-        <v>100.73</v>
+        <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14691230</v>
+        <v>14690957</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -5598,7 +5598,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14867690</v>
+        <v>14867416</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -5642,7 +5642,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14862208</v>
+        <v>14861934</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -5686,7 +5686,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14671600</v>
+        <v>14671326</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -5730,7 +5730,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467825</v>
+        <v>14467551</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -5747,7 +5747,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823660</v>
+        <v>823650</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -5774,10 +5774,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14132605</v>
+        <v>14132331</v>
       </c>
       <c r="N140">
-        <v>8935496</v>
+        <v>8935486</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -5818,10 +5818,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894901</v>
+        <v>13894627</v>
       </c>
       <c r="N141">
-        <v>8782011</v>
+        <v>8782001</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -5862,10 +5862,10 @@
         <v>104.15</v>
       </c>
       <c r="M142">
-        <v>13750808</v>
+        <v>13750534</v>
       </c>
       <c r="N142">
-        <v>8776279</v>
+        <v>8776269</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -5906,10 +5906,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13622677</v>
+        <v>13622403</v>
       </c>
       <c r="N143">
-        <v>8836721</v>
+        <v>8836711</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -5953,7 +5953,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042529</v>
+        <v>9042519</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -5997,7 +5997,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395149</v>
+        <v>9395139</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -6041,7 +6041,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716013</v>
+        <v>9716003</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -6085,7 +6085,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916844</v>
+        <v>9916834</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -6129,7 +6129,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176477</v>
+        <v>10176467</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -6173,7 +6173,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402058</v>
+        <v>10402048</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -6217,7 +6217,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586458</v>
+        <v>10586448</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -6261,7 +6261,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834371</v>
+        <v>10834361</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -7771,7 +7771,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590478</v>
+        <v>590469</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -7783,7 +7783,7 @@
         <v>9067094</v>
       </c>
       <c r="H186">
-        <v>1208914</v>
+        <v>1208765</v>
       </c>
       <c r="I186">
         <v>126.92</v>
@@ -7798,10 +7798,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889703</v>
+        <v>13889555</v>
       </c>
       <c r="N186">
-        <v>8211283</v>
+        <v>8211274</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -7842,10 +7842,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13965936</v>
+        <v>13965788</v>
       </c>
       <c r="N187">
-        <v>8231274</v>
+        <v>8231265</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -7886,10 +7886,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177170</v>
+        <v>14177021</v>
       </c>
       <c r="N188">
-        <v>8311060</v>
+        <v>8311051</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -7930,10 +7930,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260477</v>
+        <v>14260329</v>
       </c>
       <c r="N189">
-        <v>8315420</v>
+        <v>8315411</v>
       </c>
       <c r="O189">
         <v>2521451</v>
@@ -7971,13 +7971,13 @@
         <v>14.06</v>
       </c>
       <c r="L190">
-        <v>126.79</v>
+        <v>126.78</v>
       </c>
       <c r="M190">
-        <v>14422805</v>
+        <v>14422656</v>
       </c>
       <c r="N190">
-        <v>8371001</v>
+        <v>8370992</v>
       </c>
       <c r="O190">
         <v>2540060</v>
@@ -7991,10 +7991,10 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573529</v>
+        <v>573526</v>
       </c>
       <c r="E191">
-        <v>207683</v>
+        <v>207680</v>
       </c>
       <c r="F191">
         <v>9966680</v>
@@ -8003,7 +8003,7 @@
         <v>8715190</v>
       </c>
       <c r="H191">
-        <v>1073060</v>
+        <v>1073025</v>
       </c>
       <c r="I191">
         <v>129.49</v>
@@ -8018,13 +8018,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14527962</v>
+        <v>14527779</v>
       </c>
       <c r="N191">
-        <v>8368504</v>
+        <v>8368492</v>
       </c>
       <c r="O191">
-        <v>2551099</v>
+        <v>2551096</v>
       </c>
     </row>
     <row r="192">
@@ -8062,13 +8062,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532737</v>
+        <v>14532554</v>
       </c>
       <c r="N192">
-        <v>8290078</v>
+        <v>8290066</v>
       </c>
       <c r="O192">
-        <v>2547721</v>
+        <v>2547718</v>
       </c>
     </row>
     <row r="193">
@@ -8106,13 +8106,13 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761260</v>
+        <v>14761077</v>
       </c>
       <c r="N193">
-        <v>8365170</v>
+        <v>8365158</v>
       </c>
       <c r="O193">
-        <v>2572369</v>
+        <v>2572366</v>
       </c>
     </row>
     <row r="194">
@@ -8150,13 +8150,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14843941</v>
+        <v>14843758</v>
       </c>
       <c r="N194">
-        <v>8388057</v>
+        <v>8388045</v>
       </c>
       <c r="O194">
-        <v>2570169</v>
+        <v>2570166</v>
       </c>
     </row>
     <row r="195">
@@ -8194,13 +8194,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14888871</v>
+        <v>14888688</v>
       </c>
       <c r="N195">
-        <v>8325529</v>
+        <v>8325517</v>
       </c>
       <c r="O195">
-        <v>2571058</v>
+        <v>2571055</v>
       </c>
     </row>
     <row r="196">
@@ -8235,16 +8235,16 @@
         <v>14.32</v>
       </c>
       <c r="L196">
-        <v>130.2</v>
+        <v>130.19</v>
       </c>
       <c r="M196">
-        <v>14967553</v>
+        <v>14967370</v>
       </c>
       <c r="N196">
-        <v>8320025</v>
+        <v>8320013</v>
       </c>
       <c r="O196">
-        <v>2563132</v>
+        <v>2563129</v>
       </c>
     </row>
     <row r="197">
@@ -8282,13 +8282,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089698</v>
+        <v>15089514</v>
       </c>
       <c r="N197">
-        <v>8341489</v>
+        <v>8341477</v>
       </c>
       <c r="O197">
-        <v>2566587</v>
+        <v>2566584</v>
       </c>
     </row>
     <row r="198">
@@ -8326,13 +8326,13 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141509</v>
+        <v>15141474</v>
       </c>
       <c r="N198">
-        <v>8330289</v>
+        <v>8330286</v>
       </c>
       <c r="O198">
-        <v>2567388</v>
+        <v>2567385</v>
       </c>
     </row>
     <row r="199">
@@ -8370,13 +8370,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309053</v>
+        <v>15309018</v>
       </c>
       <c r="N199">
-        <v>8356537</v>
+        <v>8356534</v>
       </c>
       <c r="O199">
-        <v>2587943</v>
+        <v>2587940</v>
       </c>
     </row>
     <row r="200">
@@ -8414,13 +8414,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440662</v>
+        <v>15440628</v>
       </c>
       <c r="N200">
-        <v>8350556</v>
+        <v>8350553</v>
       </c>
       <c r="O200">
-        <v>2599996</v>
+        <v>2599993</v>
       </c>
     </row>
     <row r="201">
@@ -8434,7 +8434,7 @@
         <v>649662</v>
       </c>
       <c r="E201">
-        <v>210443</v>
+        <v>210444</v>
       </c>
       <c r="F201">
         <v>10189513</v>
@@ -8455,16 +8455,16 @@
         <v>14.4</v>
       </c>
       <c r="L201">
-        <v>133.49</v>
+        <v>133.48</v>
       </c>
       <c r="M201">
-        <v>15510437</v>
+        <v>15510402</v>
       </c>
       <c r="N201">
-        <v>8368299</v>
+        <v>8368296</v>
       </c>
       <c r="O201">
-        <v>2605573</v>
+        <v>2605571</v>
       </c>
     </row>
     <row r="202">
@@ -8502,13 +8502,13 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673747</v>
+        <v>15673712</v>
       </c>
       <c r="N202">
-        <v>8381856</v>
+        <v>8381853</v>
       </c>
       <c r="O202">
-        <v>2635485</v>
+        <v>2635483</v>
       </c>
     </row>
     <row r="203">
@@ -8552,7 +8552,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650975</v>
+        <v>2650976</v>
       </c>
     </row>
     <row r="204">
@@ -8596,7 +8596,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658797</v>
+        <v>2658798</v>
       </c>
     </row>
     <row r="205">
@@ -8640,7 +8640,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687346</v>
+        <v>2687347</v>
       </c>
     </row>
     <row r="206">
@@ -8684,7 +8684,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682400</v>
+        <v>2682401</v>
       </c>
     </row>
     <row r="207">
@@ -8728,7 +8728,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694751</v>
+        <v>2694752</v>
       </c>
     </row>
     <row r="208">
@@ -8772,7 +8772,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719334</v>
+        <v>2719335</v>
       </c>
     </row>
     <row r="209">
@@ -8816,7 +8816,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707776</v>
+        <v>2707777</v>
       </c>
     </row>
     <row r="210">
@@ -8860,7 +8860,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680341</v>
+        <v>2680342</v>
       </c>
     </row>
     <row r="211">
@@ -8904,7 +8904,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671978</v>
+        <v>2671979</v>
       </c>
     </row>
     <row r="212">
@@ -8948,7 +8948,7 @@
         <v>7781838</v>
       </c>
       <c r="O212">
-        <v>2637236</v>
+        <v>2637237</v>
       </c>
     </row>
     <row r="213">
@@ -26850,7 +26850,7 @@
         <v>43921</v>
       </c>
       <c r="B604">
-        <v>11769240</v>
+        <v>11768425</v>
       </c>
       <c r="C604">
         <v>2232.5</v>
@@ -26859,16 +26859,16 @@
         <v>1709565</v>
       </c>
       <c r="E604">
-        <v>164910</v>
+        <v>164890</v>
       </c>
       <c r="F604">
-        <v>14907682</v>
+        <v>14906507</v>
       </c>
       <c r="G604">
-        <v>10615357</v>
+        <v>10615345</v>
       </c>
       <c r="H604">
-        <v>3891902</v>
+        <v>3891899</v>
       </c>
       <c r="I604">
         <v>377.93</v>
@@ -26883,13 +26883,13 @@
         <v>372.85</v>
       </c>
       <c r="M604">
-        <v>28616691</v>
+        <v>28616688</v>
       </c>
       <c r="N604">
         <v>6427367</v>
       </c>
       <c r="O604">
-        <v>1773972</v>
+        <v>1773952</v>
       </c>
     </row>
     <row r="605">
@@ -26897,25 +26897,25 @@
         <v>43951</v>
       </c>
       <c r="B605">
-        <v>17632868</v>
+        <v>17631547</v>
       </c>
       <c r="C605">
         <v>17346.7</v>
       </c>
       <c r="D605">
-        <v>12201277</v>
+        <v>12201281</v>
       </c>
       <c r="E605">
-        <v>206161</v>
+        <v>206118</v>
       </c>
       <c r="F605">
-        <v>66125880</v>
+        <v>66122705</v>
       </c>
       <c r="G605">
-        <v>55715641</v>
+        <v>55715631</v>
       </c>
       <c r="H605">
-        <v>18338671</v>
+        <v>18338675</v>
       </c>
       <c r="I605">
         <v>334.26</v>
@@ -26930,13 +26930,13 @@
         <v>356.14</v>
       </c>
       <c r="M605">
-        <v>44516864</v>
+        <v>44516865</v>
       </c>
       <c r="N605">
-        <v>18275692</v>
+        <v>18275696</v>
       </c>
       <c r="O605">
-        <v>1812735</v>
+        <v>1812672</v>
       </c>
     </row>
     <row r="606">
@@ -26944,25 +26944,25 @@
         <v>43982</v>
       </c>
       <c r="B606">
-        <v>9283434</v>
+        <v>9282648</v>
       </c>
       <c r="C606">
         <v>18746</v>
       </c>
       <c r="D606">
-        <v>5760517</v>
+        <v>5760519</v>
       </c>
       <c r="E606">
-        <v>263886</v>
+        <v>263850</v>
       </c>
       <c r="F606">
-        <v>87031320</v>
+        <v>87028159</v>
       </c>
       <c r="G606">
-        <v>76904907</v>
+        <v>76904875</v>
       </c>
       <c r="H606">
-        <v>23754356</v>
+        <v>23754361</v>
       </c>
       <c r="I606">
         <v>319.43</v>
@@ -26977,13 +26977,13 @@
         <v>341.8</v>
       </c>
       <c r="M606">
-        <v>66265409</v>
+        <v>66265415</v>
       </c>
       <c r="N606">
-        <v>23685029</v>
+        <v>23685035</v>
       </c>
       <c r="O606">
-        <v>1925972</v>
+        <v>1925873</v>
       </c>
     </row>
     <row r="607">
@@ -26991,25 +26991,25 @@
         <v>44012</v>
       </c>
       <c r="B607">
-        <v>6650692</v>
+        <v>6650010</v>
       </c>
       <c r="C607">
         <v>17052.6</v>
       </c>
       <c r="D607">
-        <v>3163674</v>
+        <v>3163671</v>
       </c>
       <c r="E607">
-        <v>605364</v>
+        <v>605297</v>
       </c>
       <c r="F607">
-        <v>77521310</v>
+        <v>77520547</v>
       </c>
       <c r="G607">
-        <v>75658953</v>
+        <v>75658920</v>
       </c>
       <c r="H607">
-        <v>22138432</v>
+        <v>22138430</v>
       </c>
       <c r="I607">
         <v>305.91</v>
@@ -27024,13 +27024,13 @@
         <v>331.49</v>
       </c>
       <c r="M607">
-        <v>86487991</v>
+        <v>86487995</v>
       </c>
       <c r="N607">
-        <v>26483303</v>
+        <v>26483306</v>
       </c>
       <c r="O607">
-        <v>2392651</v>
+        <v>2392485</v>
       </c>
     </row>
     <row r="608">
@@ -27038,25 +27038,25 @@
         <v>44043</v>
       </c>
       <c r="B608">
-        <v>5952705</v>
+        <v>5952294</v>
       </c>
       <c r="C608">
         <v>16315.1</v>
       </c>
       <c r="D608">
-        <v>2163838</v>
+        <v>2163842</v>
       </c>
       <c r="E608">
-        <v>950158</v>
+        <v>950127</v>
       </c>
       <c r="F608">
-        <v>68602070</v>
+        <v>68598900</v>
       </c>
       <c r="G608">
-        <v>64868385</v>
+        <v>64868374</v>
       </c>
       <c r="H608">
-        <v>18662865</v>
+        <v>18662874</v>
       </c>
       <c r="I608">
         <v>303.85</v>
@@ -27071,13 +27071,13 @@
         <v>325.7</v>
       </c>
       <c r="M608">
-        <v>102836944</v>
+        <v>102836957</v>
       </c>
       <c r="N608">
-        <v>28174614</v>
+        <v>28174621</v>
       </c>
       <c r="O608">
-        <v>3184761</v>
+        <v>3184564</v>
       </c>
     </row>
     <row r="609">
@@ -27085,7 +27085,7 @@
         <v>44074</v>
       </c>
       <c r="B609">
-        <v>3754528</v>
+        <v>3754231</v>
       </c>
       <c r="C609">
         <v>14100.6</v>
@@ -27094,16 +27094,16 @@
         <v>1322867</v>
       </c>
       <c r="E609">
-        <v>1066604</v>
+        <v>1066623</v>
       </c>
       <c r="F609">
-        <v>63219468</v>
+        <v>63217369</v>
       </c>
       <c r="G609">
-        <v>56553382</v>
+        <v>56553372</v>
       </c>
       <c r="H609">
-        <v>16358572</v>
+        <v>16358566</v>
       </c>
       <c r="I609">
         <v>303.9</v>
@@ -27118,13 +27118,13 @@
         <v>322.02</v>
       </c>
       <c r="M609">
-        <v>117204480</v>
+        <v>117204487</v>
       </c>
       <c r="N609">
-        <v>29141306</v>
+        <v>29141313</v>
       </c>
       <c r="O609">
-        <v>4115422</v>
+        <v>4115244</v>
       </c>
     </row>
     <row r="610">
@@ -27132,31 +27132,31 @@
         <v>44104</v>
       </c>
       <c r="B610">
-        <v>3499689</v>
+        <v>3499403</v>
       </c>
       <c r="C610">
         <v>12431.1</v>
       </c>
       <c r="D610">
-        <v>913791</v>
+        <v>913794</v>
       </c>
       <c r="E610">
-        <v>3056341</v>
+        <v>3056261</v>
       </c>
       <c r="F610">
-        <v>49206838</v>
+        <v>49205690</v>
       </c>
       <c r="G610">
-        <v>46146973</v>
+        <v>46146982</v>
       </c>
       <c r="H610">
-        <v>13636573</v>
+        <v>13636582</v>
       </c>
       <c r="I610">
         <v>311.59</v>
       </c>
       <c r="J610">
-        <v>109.42</v>
+        <v>109.41</v>
       </c>
       <c r="K610">
         <v>14.09</v>
@@ -27165,13 +27165,13 @@
         <v>320.27</v>
       </c>
       <c r="M610">
-        <v>128896991</v>
+        <v>128897007</v>
       </c>
       <c r="N610">
-        <v>29743907</v>
+        <v>29743917</v>
       </c>
       <c r="O610">
-        <v>7032526</v>
+        <v>7032268</v>
       </c>
     </row>
     <row r="611">
@@ -27179,25 +27179,25 @@
         <v>44135</v>
       </c>
       <c r="B611">
-        <v>3454273</v>
+        <v>3452808</v>
       </c>
       <c r="C611">
         <v>7612.8</v>
       </c>
       <c r="D611">
-        <v>762364</v>
+        <v>762363</v>
       </c>
       <c r="E611">
-        <v>2435546</v>
+        <v>2435370</v>
       </c>
       <c r="F611">
-        <v>32123268</v>
+        <v>32121929</v>
       </c>
       <c r="G611">
-        <v>28459956</v>
+        <v>28459952</v>
       </c>
       <c r="H611">
-        <v>8377585</v>
+        <v>8377586</v>
       </c>
       <c r="I611">
         <v>316.25</v>
@@ -27212,13 +27212,13 @@
         <v>319.36</v>
       </c>
       <c r="M611">
-        <v>135364585</v>
+        <v>135364602</v>
       </c>
       <c r="N611">
-        <v>30141899</v>
+        <v>30141908</v>
       </c>
       <c r="O611">
-        <v>9326452</v>
+        <v>9326018</v>
       </c>
     </row>
     <row r="612">
@@ -27226,7 +27226,7 @@
         <v>44165</v>
       </c>
       <c r="B612">
-        <v>3436702</v>
+        <v>3435891</v>
       </c>
       <c r="C612">
         <v>6136</v>
@@ -27235,16 +27235,16 @@
         <v>742717</v>
       </c>
       <c r="E612">
-        <v>1329892</v>
+        <v>1329838</v>
       </c>
       <c r="F612">
-        <v>26461549</v>
+        <v>26459098</v>
       </c>
       <c r="G612">
-        <v>21945627</v>
+        <v>21945623</v>
       </c>
       <c r="H612">
-        <v>6701818</v>
+        <v>6701817</v>
       </c>
       <c r="I612">
         <v>330.1</v>
@@ -27259,13 +27259,13 @@
         <v>319.19</v>
       </c>
       <c r="M612">
-        <v>140240338</v>
+        <v>140240353</v>
       </c>
       <c r="N612">
-        <v>30517970</v>
+        <v>30517979</v>
       </c>
       <c r="O612">
-        <v>10528441</v>
+        <v>10527953</v>
       </c>
     </row>
     <row r="613">
@@ -27273,25 +27273,25 @@
         <v>44196</v>
       </c>
       <c r="B613">
-        <v>4226107</v>
+        <v>4225390</v>
       </c>
       <c r="C613">
         <v>5655.4</v>
       </c>
       <c r="D613">
-        <v>874957</v>
+        <v>874958</v>
       </c>
       <c r="E613">
-        <v>1042565</v>
+        <v>1042516</v>
       </c>
       <c r="F613">
-        <v>23050860</v>
+        <v>23049165</v>
       </c>
       <c r="G613">
-        <v>20380363</v>
+        <v>20380357</v>
       </c>
       <c r="H613">
-        <v>6405711</v>
+        <v>6405718</v>
       </c>
       <c r="I613">
         <v>339.09</v>
@@ -27306,13 +27306,13 @@
         <v>319.02</v>
       </c>
       <c r="M613">
-        <v>143966702</v>
+        <v>143966724</v>
       </c>
       <c r="N613">
-        <v>30831490</v>
+        <v>30831500</v>
       </c>
       <c r="O613">
-        <v>11412095</v>
+        <v>11411558</v>
       </c>
     </row>
     <row r="614">
@@ -27320,46 +27320,93 @@
         <v>44227</v>
       </c>
       <c r="B614">
-        <v>4630041</v>
+        <v>4612118</v>
       </c>
       <c r="C614">
-        <v>6468.066666666667</v>
+        <v>5366.6</v>
       </c>
       <c r="D614">
-        <v>942953</v>
+        <v>923321</v>
       </c>
       <c r="E614">
-        <v>1602667.666666667</v>
+        <v>834217</v>
       </c>
       <c r="F614">
-        <v>23069341</v>
+        <v>22888932</v>
       </c>
       <c r="G614">
-        <v>18036771</v>
+        <v>17873610</v>
       </c>
       <c r="H614">
-        <v>5782524</v>
+        <v>5746176</v>
       </c>
       <c r="I614">
-        <v>345.31</v>
+        <v>346.46</v>
       </c>
       <c r="J614">
-        <v>42.96</v>
+        <v>42.92</v>
       </c>
       <c r="K614">
         <v>15.55</v>
       </c>
       <c r="L614">
-        <v>318.84</v>
+        <v>318.87</v>
       </c>
       <c r="M614">
-        <v>146802057</v>
+        <v>146765730</v>
       </c>
       <c r="N614">
-        <v>31037950</v>
+        <v>31018328</v>
       </c>
       <c r="O614">
-        <v>12103326</v>
+        <v>12093755</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2">
+        <v>44255</v>
+      </c>
+      <c r="B615">
+        <v>3457065</v>
+      </c>
+      <c r="C615">
+        <v>5719.333333333333</v>
+      </c>
+      <c r="D615">
+        <v>777465</v>
+      </c>
+      <c r="E615">
+        <v>1068857</v>
+      </c>
+      <c r="F615">
+        <v>19067992</v>
+      </c>
+      <c r="G615">
+        <v>16093068</v>
+      </c>
+      <c r="H615">
+        <v>5161117</v>
+      </c>
+      <c r="I615">
+        <v>349.35</v>
+      </c>
+      <c r="J615">
+        <v>43.23</v>
+      </c>
+      <c r="K615">
+        <v>15.69</v>
+      </c>
+      <c r="L615">
+        <v>318.76</v>
+      </c>
+      <c r="M615">
+        <v>149173800</v>
+      </c>
+      <c r="N615">
+        <v>31316363</v>
+      </c>
+      <c r="O615">
+        <v>12598111</v>
       </c>
     </row>
   </sheetData>

--- a/data/supplementary/monthly_state_ui.xlsx
+++ b/data/supplementary/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O615"/>
+  <dimension ref="A1:O614"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3911,7 +3911,7 @@
         <v>12152139</v>
       </c>
       <c r="H98">
-        <v>904864</v>
+        <v>904865</v>
       </c>
       <c r="I98">
         <v>104.65</v>
@@ -3970,7 +3970,7 @@
         <v>79.84</v>
       </c>
       <c r="M99">
-        <v>8586173</v>
+        <v>8586174</v>
       </c>
       <c r="N99">
         <v>7675188</v>
@@ -4014,7 +4014,7 @@
         <v>80.49</v>
       </c>
       <c r="M100">
-        <v>8552546</v>
+        <v>8552547</v>
       </c>
       <c r="N100">
         <v>7655474</v>
@@ -4102,7 +4102,7 @@
         <v>81.34999999999999</v>
       </c>
       <c r="M102">
-        <v>8469972</v>
+        <v>8469973</v>
       </c>
       <c r="N102">
         <v>7605385</v>
@@ -4190,7 +4190,7 @@
         <v>82.12000000000001</v>
       </c>
       <c r="M104">
-        <v>8353736</v>
+        <v>8353737</v>
       </c>
       <c r="N104">
         <v>7610967</v>
@@ -4231,10 +4231,10 @@
         <v>13.57</v>
       </c>
       <c r="L105">
-        <v>82.48</v>
+        <v>82.49</v>
       </c>
       <c r="M105">
-        <v>8358613</v>
+        <v>8358614</v>
       </c>
       <c r="N105">
         <v>7677889</v>
@@ -4410,7 +4410,7 @@
         <v>83.67</v>
       </c>
       <c r="M109">
-        <v>8212234</v>
+        <v>8212235</v>
       </c>
       <c r="N109">
         <v>7568310</v>
@@ -5407,7 +5407,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935885</v>
+        <v>936159</v>
       </c>
       <c r="I132">
         <v>94</v>
@@ -5422,7 +5422,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14067432</v>
+        <v>14067706</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -5463,10 +5463,10 @@
         <v>14.91</v>
       </c>
       <c r="L133">
-        <v>99.53</v>
+        <v>99.54000000000001</v>
       </c>
       <c r="M133">
-        <v>14469885</v>
+        <v>14470158</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -5510,7 +5510,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605520</v>
+        <v>14605794</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -5551,10 +5551,10 @@
         <v>15.11</v>
       </c>
       <c r="L135">
-        <v>100.72</v>
+        <v>100.73</v>
       </c>
       <c r="M135">
-        <v>14690957</v>
+        <v>14691230</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -5598,7 +5598,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14867416</v>
+        <v>14867690</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -5642,7 +5642,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861934</v>
+        <v>14862208</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -5686,7 +5686,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14671326</v>
+        <v>14671600</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -5730,7 +5730,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467551</v>
+        <v>14467825</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -5747,7 +5747,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823650</v>
+        <v>823660</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -5774,10 +5774,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14132331</v>
+        <v>14132605</v>
       </c>
       <c r="N140">
-        <v>8935486</v>
+        <v>8935496</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -5818,10 +5818,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894627</v>
+        <v>13894901</v>
       </c>
       <c r="N141">
-        <v>8782001</v>
+        <v>8782011</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -5862,10 +5862,10 @@
         <v>104.15</v>
       </c>
       <c r="M142">
-        <v>13750534</v>
+        <v>13750808</v>
       </c>
       <c r="N142">
-        <v>8776269</v>
+        <v>8776279</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -5906,10 +5906,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13622403</v>
+        <v>13622677</v>
       </c>
       <c r="N143">
-        <v>8836711</v>
+        <v>8836721</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -5953,7 +5953,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042519</v>
+        <v>9042529</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -5997,7 +5997,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395139</v>
+        <v>9395149</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -6041,7 +6041,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716003</v>
+        <v>9716013</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -6085,7 +6085,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916834</v>
+        <v>9916844</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -6129,7 +6129,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176467</v>
+        <v>10176477</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -6173,7 +6173,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402048</v>
+        <v>10402058</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -6217,7 +6217,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586448</v>
+        <v>10586458</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -6261,7 +6261,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834361</v>
+        <v>10834371</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -7771,7 +7771,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590469</v>
+        <v>590478</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -7783,7 +7783,7 @@
         <v>9067094</v>
       </c>
       <c r="H186">
-        <v>1208765</v>
+        <v>1208914</v>
       </c>
       <c r="I186">
         <v>126.92</v>
@@ -7798,10 +7798,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889555</v>
+        <v>13889703</v>
       </c>
       <c r="N186">
-        <v>8211274</v>
+        <v>8211283</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -7842,10 +7842,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13965788</v>
+        <v>13965936</v>
       </c>
       <c r="N187">
-        <v>8231265</v>
+        <v>8231274</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -7886,10 +7886,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177021</v>
+        <v>14177170</v>
       </c>
       <c r="N188">
-        <v>8311051</v>
+        <v>8311060</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -7930,10 +7930,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260329</v>
+        <v>14260477</v>
       </c>
       <c r="N189">
-        <v>8315411</v>
+        <v>8315420</v>
       </c>
       <c r="O189">
         <v>2521451</v>
@@ -7971,13 +7971,13 @@
         <v>14.06</v>
       </c>
       <c r="L190">
-        <v>126.78</v>
+        <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14422656</v>
+        <v>14422805</v>
       </c>
       <c r="N190">
-        <v>8370992</v>
+        <v>8371001</v>
       </c>
       <c r="O190">
         <v>2540060</v>
@@ -7991,10 +7991,10 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573526</v>
+        <v>573529</v>
       </c>
       <c r="E191">
-        <v>207680</v>
+        <v>207683</v>
       </c>
       <c r="F191">
         <v>9966680</v>
@@ -8003,7 +8003,7 @@
         <v>8715190</v>
       </c>
       <c r="H191">
-        <v>1073025</v>
+        <v>1073060</v>
       </c>
       <c r="I191">
         <v>129.49</v>
@@ -8018,13 +8018,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14527779</v>
+        <v>14527962</v>
       </c>
       <c r="N191">
-        <v>8368492</v>
+        <v>8368504</v>
       </c>
       <c r="O191">
-        <v>2551096</v>
+        <v>2551099</v>
       </c>
     </row>
     <row r="192">
@@ -8062,13 +8062,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532554</v>
+        <v>14532737</v>
       </c>
       <c r="N192">
-        <v>8290066</v>
+        <v>8290078</v>
       </c>
       <c r="O192">
-        <v>2547718</v>
+        <v>2547721</v>
       </c>
     </row>
     <row r="193">
@@ -8106,13 +8106,13 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761077</v>
+        <v>14761260</v>
       </c>
       <c r="N193">
-        <v>8365158</v>
+        <v>8365170</v>
       </c>
       <c r="O193">
-        <v>2572366</v>
+        <v>2572369</v>
       </c>
     </row>
     <row r="194">
@@ -8150,13 +8150,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14843758</v>
+        <v>14843941</v>
       </c>
       <c r="N194">
-        <v>8388045</v>
+        <v>8388057</v>
       </c>
       <c r="O194">
-        <v>2570166</v>
+        <v>2570169</v>
       </c>
     </row>
     <row r="195">
@@ -8194,13 +8194,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14888688</v>
+        <v>14888871</v>
       </c>
       <c r="N195">
-        <v>8325517</v>
+        <v>8325529</v>
       </c>
       <c r="O195">
-        <v>2571055</v>
+        <v>2571058</v>
       </c>
     </row>
     <row r="196">
@@ -8235,16 +8235,16 @@
         <v>14.32</v>
       </c>
       <c r="L196">
-        <v>130.19</v>
+        <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967370</v>
+        <v>14967553</v>
       </c>
       <c r="N196">
-        <v>8320013</v>
+        <v>8320025</v>
       </c>
       <c r="O196">
-        <v>2563129</v>
+        <v>2563132</v>
       </c>
     </row>
     <row r="197">
@@ -8282,13 +8282,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089514</v>
+        <v>15089698</v>
       </c>
       <c r="N197">
-        <v>8341477</v>
+        <v>8341489</v>
       </c>
       <c r="O197">
-        <v>2566584</v>
+        <v>2566587</v>
       </c>
     </row>
     <row r="198">
@@ -8326,13 +8326,13 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141474</v>
+        <v>15141509</v>
       </c>
       <c r="N198">
-        <v>8330286</v>
+        <v>8330289</v>
       </c>
       <c r="O198">
-        <v>2567385</v>
+        <v>2567388</v>
       </c>
     </row>
     <row r="199">
@@ -8370,13 +8370,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309018</v>
+        <v>15309053</v>
       </c>
       <c r="N199">
-        <v>8356534</v>
+        <v>8356537</v>
       </c>
       <c r="O199">
-        <v>2587940</v>
+        <v>2587943</v>
       </c>
     </row>
     <row r="200">
@@ -8414,13 +8414,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440628</v>
+        <v>15440662</v>
       </c>
       <c r="N200">
-        <v>8350553</v>
+        <v>8350556</v>
       </c>
       <c r="O200">
-        <v>2599993</v>
+        <v>2599996</v>
       </c>
     </row>
     <row r="201">
@@ -8434,7 +8434,7 @@
         <v>649662</v>
       </c>
       <c r="E201">
-        <v>210444</v>
+        <v>210443</v>
       </c>
       <c r="F201">
         <v>10189513</v>
@@ -8455,16 +8455,16 @@
         <v>14.4</v>
       </c>
       <c r="L201">
-        <v>133.48</v>
+        <v>133.49</v>
       </c>
       <c r="M201">
-        <v>15510402</v>
+        <v>15510437</v>
       </c>
       <c r="N201">
-        <v>8368296</v>
+        <v>8368299</v>
       </c>
       <c r="O201">
-        <v>2605571</v>
+        <v>2605573</v>
       </c>
     </row>
     <row r="202">
@@ -8502,13 +8502,13 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673712</v>
+        <v>15673747</v>
       </c>
       <c r="N202">
-        <v>8381853</v>
+        <v>8381856</v>
       </c>
       <c r="O202">
-        <v>2635483</v>
+        <v>2635485</v>
       </c>
     </row>
     <row r="203">
@@ -8552,7 +8552,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650976</v>
+        <v>2650975</v>
       </c>
     </row>
     <row r="204">
@@ -8596,7 +8596,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658798</v>
+        <v>2658797</v>
       </c>
     </row>
     <row r="205">
@@ -8640,7 +8640,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687347</v>
+        <v>2687346</v>
       </c>
     </row>
     <row r="206">
@@ -8684,7 +8684,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682401</v>
+        <v>2682400</v>
       </c>
     </row>
     <row r="207">
@@ -8728,7 +8728,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694752</v>
+        <v>2694751</v>
       </c>
     </row>
     <row r="208">
@@ -8772,7 +8772,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719335</v>
+        <v>2719334</v>
       </c>
     </row>
     <row r="209">
@@ -8816,7 +8816,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707777</v>
+        <v>2707776</v>
       </c>
     </row>
     <row r="210">
@@ -8860,7 +8860,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680342</v>
+        <v>2680341</v>
       </c>
     </row>
     <row r="211">
@@ -8904,7 +8904,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671979</v>
+        <v>2671978</v>
       </c>
     </row>
     <row r="212">
@@ -8948,7 +8948,7 @@
         <v>7781838</v>
       </c>
       <c r="O212">
-        <v>2637237</v>
+        <v>2637236</v>
       </c>
     </row>
     <row r="213">
@@ -26850,7 +26850,7 @@
         <v>43921</v>
       </c>
       <c r="B604">
-        <v>11768425</v>
+        <v>11769240</v>
       </c>
       <c r="C604">
         <v>2232.5</v>
@@ -26859,16 +26859,16 @@
         <v>1709565</v>
       </c>
       <c r="E604">
-        <v>164890</v>
+        <v>164910</v>
       </c>
       <c r="F604">
-        <v>14906507</v>
+        <v>14907682</v>
       </c>
       <c r="G604">
-        <v>10615345</v>
+        <v>10615357</v>
       </c>
       <c r="H604">
-        <v>3891899</v>
+        <v>3891902</v>
       </c>
       <c r="I604">
         <v>377.93</v>
@@ -26883,13 +26883,13 @@
         <v>372.85</v>
       </c>
       <c r="M604">
-        <v>28616688</v>
+        <v>28616691</v>
       </c>
       <c r="N604">
         <v>6427367</v>
       </c>
       <c r="O604">
-        <v>1773952</v>
+        <v>1773972</v>
       </c>
     </row>
     <row r="605">
@@ -26897,25 +26897,25 @@
         <v>43951</v>
       </c>
       <c r="B605">
-        <v>17631547</v>
+        <v>17632868</v>
       </c>
       <c r="C605">
         <v>17346.7</v>
       </c>
       <c r="D605">
-        <v>12201281</v>
+        <v>12201277</v>
       </c>
       <c r="E605">
-        <v>206118</v>
+        <v>206161</v>
       </c>
       <c r="F605">
-        <v>66122705</v>
+        <v>66125880</v>
       </c>
       <c r="G605">
-        <v>55715631</v>
+        <v>55715641</v>
       </c>
       <c r="H605">
-        <v>18338675</v>
+        <v>18338671</v>
       </c>
       <c r="I605">
         <v>334.26</v>
@@ -26930,13 +26930,13 @@
         <v>356.14</v>
       </c>
       <c r="M605">
-        <v>44516865</v>
+        <v>44516864</v>
       </c>
       <c r="N605">
-        <v>18275696</v>
+        <v>18275692</v>
       </c>
       <c r="O605">
-        <v>1812672</v>
+        <v>1812735</v>
       </c>
     </row>
     <row r="606">
@@ -26944,25 +26944,25 @@
         <v>43982</v>
       </c>
       <c r="B606">
-        <v>9282648</v>
+        <v>9283434</v>
       </c>
       <c r="C606">
         <v>18746</v>
       </c>
       <c r="D606">
-        <v>5760519</v>
+        <v>5760517</v>
       </c>
       <c r="E606">
-        <v>263850</v>
+        <v>263886</v>
       </c>
       <c r="F606">
-        <v>87028159</v>
+        <v>87031320</v>
       </c>
       <c r="G606">
-        <v>76904875</v>
+        <v>76904907</v>
       </c>
       <c r="H606">
-        <v>23754361</v>
+        <v>23754356</v>
       </c>
       <c r="I606">
         <v>319.43</v>
@@ -26977,13 +26977,13 @@
         <v>341.8</v>
       </c>
       <c r="M606">
-        <v>66265415</v>
+        <v>66265409</v>
       </c>
       <c r="N606">
-        <v>23685035</v>
+        <v>23685029</v>
       </c>
       <c r="O606">
-        <v>1925873</v>
+        <v>1925972</v>
       </c>
     </row>
     <row r="607">
@@ -26991,25 +26991,25 @@
         <v>44012</v>
       </c>
       <c r="B607">
-        <v>6650010</v>
+        <v>6650692</v>
       </c>
       <c r="C607">
         <v>17052.6</v>
       </c>
       <c r="D607">
-        <v>3163671</v>
+        <v>3163674</v>
       </c>
       <c r="E607">
-        <v>605297</v>
+        <v>605364</v>
       </c>
       <c r="F607">
-        <v>77520547</v>
+        <v>77521310</v>
       </c>
       <c r="G607">
-        <v>75658920</v>
+        <v>75658953</v>
       </c>
       <c r="H607">
-        <v>22138430</v>
+        <v>22138432</v>
       </c>
       <c r="I607">
         <v>305.91</v>
@@ -27024,13 +27024,13 @@
         <v>331.49</v>
       </c>
       <c r="M607">
-        <v>86487995</v>
+        <v>86487991</v>
       </c>
       <c r="N607">
-        <v>26483306</v>
+        <v>26483303</v>
       </c>
       <c r="O607">
-        <v>2392485</v>
+        <v>2392651</v>
       </c>
     </row>
     <row r="608">
@@ -27038,25 +27038,25 @@
         <v>44043</v>
       </c>
       <c r="B608">
-        <v>5952294</v>
+        <v>5952705</v>
       </c>
       <c r="C608">
         <v>16315.1</v>
       </c>
       <c r="D608">
-        <v>2163842</v>
+        <v>2163838</v>
       </c>
       <c r="E608">
-        <v>950127</v>
+        <v>950158</v>
       </c>
       <c r="F608">
-        <v>68598900</v>
+        <v>68602070</v>
       </c>
       <c r="G608">
-        <v>64868374</v>
+        <v>64868385</v>
       </c>
       <c r="H608">
-        <v>18662874</v>
+        <v>18662865</v>
       </c>
       <c r="I608">
         <v>303.85</v>
@@ -27071,13 +27071,13 @@
         <v>325.7</v>
       </c>
       <c r="M608">
-        <v>102836957</v>
+        <v>102836944</v>
       </c>
       <c r="N608">
-        <v>28174621</v>
+        <v>28174614</v>
       </c>
       <c r="O608">
-        <v>3184564</v>
+        <v>3184761</v>
       </c>
     </row>
     <row r="609">
@@ -27085,7 +27085,7 @@
         <v>44074</v>
       </c>
       <c r="B609">
-        <v>3754231</v>
+        <v>3754528</v>
       </c>
       <c r="C609">
         <v>14100.6</v>
@@ -27094,16 +27094,16 @@
         <v>1322867</v>
       </c>
       <c r="E609">
-        <v>1066623</v>
+        <v>1066604</v>
       </c>
       <c r="F609">
-        <v>63217369</v>
+        <v>63219468</v>
       </c>
       <c r="G609">
-        <v>56553372</v>
+        <v>56553382</v>
       </c>
       <c r="H609">
-        <v>16358566</v>
+        <v>16358572</v>
       </c>
       <c r="I609">
         <v>303.9</v>
@@ -27118,13 +27118,13 @@
         <v>322.02</v>
       </c>
       <c r="M609">
-        <v>117204487</v>
+        <v>117204480</v>
       </c>
       <c r="N609">
-        <v>29141313</v>
+        <v>29141306</v>
       </c>
       <c r="O609">
-        <v>4115244</v>
+        <v>4115422</v>
       </c>
     </row>
     <row r="610">
@@ -27132,31 +27132,31 @@
         <v>44104</v>
       </c>
       <c r="B610">
-        <v>3499403</v>
+        <v>3499689</v>
       </c>
       <c r="C610">
         <v>12431.1</v>
       </c>
       <c r="D610">
-        <v>913794</v>
+        <v>913791</v>
       </c>
       <c r="E610">
-        <v>3056261</v>
+        <v>3056341</v>
       </c>
       <c r="F610">
-        <v>49205690</v>
+        <v>49206838</v>
       </c>
       <c r="G610">
-        <v>46146982</v>
+        <v>46146973</v>
       </c>
       <c r="H610">
-        <v>13636582</v>
+        <v>13636573</v>
       </c>
       <c r="I610">
         <v>311.59</v>
       </c>
       <c r="J610">
-        <v>109.41</v>
+        <v>109.42</v>
       </c>
       <c r="K610">
         <v>14.09</v>
@@ -27165,13 +27165,13 @@
         <v>320.27</v>
       </c>
       <c r="M610">
-        <v>128897007</v>
+        <v>128896991</v>
       </c>
       <c r="N610">
-        <v>29743917</v>
+        <v>29743907</v>
       </c>
       <c r="O610">
-        <v>7032268</v>
+        <v>7032526</v>
       </c>
     </row>
     <row r="611">
@@ -27179,25 +27179,25 @@
         <v>44135</v>
       </c>
       <c r="B611">
-        <v>3452808</v>
+        <v>3454273</v>
       </c>
       <c r="C611">
         <v>7612.8</v>
       </c>
       <c r="D611">
-        <v>762363</v>
+        <v>762364</v>
       </c>
       <c r="E611">
-        <v>2435370</v>
+        <v>2435546</v>
       </c>
       <c r="F611">
-        <v>32121929</v>
+        <v>32123268</v>
       </c>
       <c r="G611">
-        <v>28459952</v>
+        <v>28459956</v>
       </c>
       <c r="H611">
-        <v>8377586</v>
+        <v>8377585</v>
       </c>
       <c r="I611">
         <v>316.25</v>
@@ -27212,13 +27212,13 @@
         <v>319.36</v>
       </c>
       <c r="M611">
-        <v>135364602</v>
+        <v>135364585</v>
       </c>
       <c r="N611">
-        <v>30141908</v>
+        <v>30141899</v>
       </c>
       <c r="O611">
-        <v>9326018</v>
+        <v>9326452</v>
       </c>
     </row>
     <row r="612">
@@ -27226,7 +27226,7 @@
         <v>44165</v>
       </c>
       <c r="B612">
-        <v>3435891</v>
+        <v>3436702</v>
       </c>
       <c r="C612">
         <v>6136</v>
@@ -27235,16 +27235,16 @@
         <v>742717</v>
       </c>
       <c r="E612">
-        <v>1329838</v>
+        <v>1329892</v>
       </c>
       <c r="F612">
-        <v>26459098</v>
+        <v>26461549</v>
       </c>
       <c r="G612">
-        <v>21945623</v>
+        <v>21945627</v>
       </c>
       <c r="H612">
-        <v>6701817</v>
+        <v>6701818</v>
       </c>
       <c r="I612">
         <v>330.1</v>
@@ -27259,13 +27259,13 @@
         <v>319.19</v>
       </c>
       <c r="M612">
-        <v>140240353</v>
+        <v>140240338</v>
       </c>
       <c r="N612">
-        <v>30517979</v>
+        <v>30517970</v>
       </c>
       <c r="O612">
-        <v>10527953</v>
+        <v>10528441</v>
       </c>
     </row>
     <row r="613">
@@ -27273,25 +27273,25 @@
         <v>44196</v>
       </c>
       <c r="B613">
-        <v>4225390</v>
+        <v>4226107</v>
       </c>
       <c r="C613">
         <v>5655.4</v>
       </c>
       <c r="D613">
-        <v>874958</v>
+        <v>874957</v>
       </c>
       <c r="E613">
-        <v>1042516</v>
+        <v>1042565</v>
       </c>
       <c r="F613">
-        <v>23049165</v>
+        <v>23050860</v>
       </c>
       <c r="G613">
-        <v>20380357</v>
+        <v>20380363</v>
       </c>
       <c r="H613">
-        <v>6405718</v>
+        <v>6405711</v>
       </c>
       <c r="I613">
         <v>339.09</v>
@@ -27306,13 +27306,13 @@
         <v>319.02</v>
       </c>
       <c r="M613">
-        <v>143966724</v>
+        <v>143966702</v>
       </c>
       <c r="N613">
-        <v>30831500</v>
+        <v>30831490</v>
       </c>
       <c r="O613">
-        <v>11411558</v>
+        <v>11412095</v>
       </c>
     </row>
     <row r="614">
@@ -27320,93 +27320,46 @@
         <v>44227</v>
       </c>
       <c r="B614">
-        <v>4612118</v>
+        <v>4630041</v>
       </c>
       <c r="C614">
-        <v>5366.6</v>
+        <v>6468.066666666667</v>
       </c>
       <c r="D614">
-        <v>923321</v>
+        <v>942953</v>
       </c>
       <c r="E614">
-        <v>834217</v>
+        <v>1602667.666666667</v>
       </c>
       <c r="F614">
-        <v>22888932</v>
+        <v>23069341</v>
       </c>
       <c r="G614">
-        <v>17873610</v>
+        <v>18036771</v>
       </c>
       <c r="H614">
-        <v>5746176</v>
+        <v>5782524</v>
       </c>
       <c r="I614">
-        <v>346.46</v>
+        <v>345.31</v>
       </c>
       <c r="J614">
-        <v>42.92</v>
+        <v>42.96</v>
       </c>
       <c r="K614">
         <v>15.55</v>
       </c>
       <c r="L614">
-        <v>318.87</v>
+        <v>318.84</v>
       </c>
       <c r="M614">
-        <v>146765730</v>
+        <v>146802057</v>
       </c>
       <c r="N614">
-        <v>31018328</v>
+        <v>31037950</v>
       </c>
       <c r="O614">
-        <v>12093755</v>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" s="2">
-        <v>44255</v>
-      </c>
-      <c r="B615">
-        <v>3457065</v>
-      </c>
-      <c r="C615">
-        <v>5719.333333333333</v>
-      </c>
-      <c r="D615">
-        <v>777465</v>
-      </c>
-      <c r="E615">
-        <v>1068857</v>
-      </c>
-      <c r="F615">
-        <v>19067992</v>
-      </c>
-      <c r="G615">
-        <v>16093068</v>
-      </c>
-      <c r="H615">
-        <v>5161117</v>
-      </c>
-      <c r="I615">
-        <v>349.35</v>
-      </c>
-      <c r="J615">
-        <v>43.23</v>
-      </c>
-      <c r="K615">
-        <v>15.69</v>
-      </c>
-      <c r="L615">
-        <v>318.76</v>
-      </c>
-      <c r="M615">
-        <v>149173800</v>
-      </c>
-      <c r="N615">
-        <v>31316363</v>
-      </c>
-      <c r="O615">
-        <v>12598111</v>
+        <v>12103326</v>
       </c>
     </row>
   </sheetData>

--- a/data/supplementary/monthly_state_ui.xlsx
+++ b/data/supplementary/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O613"/>
+  <dimension ref="A1:O615"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3911,7 +3911,7 @@
         <v>12152139</v>
       </c>
       <c r="H98">
-        <v>904865</v>
+        <v>904864</v>
       </c>
       <c r="I98">
         <v>104.65</v>
@@ -3970,7 +3970,7 @@
         <v>79.84</v>
       </c>
       <c r="M99">
-        <v>8586174</v>
+        <v>8586173</v>
       </c>
       <c r="N99">
         <v>7675188</v>
@@ -4014,7 +4014,7 @@
         <v>80.49</v>
       </c>
       <c r="M100">
-        <v>8552547</v>
+        <v>8552546</v>
       </c>
       <c r="N100">
         <v>7655474</v>
@@ -4102,7 +4102,7 @@
         <v>81.34999999999999</v>
       </c>
       <c r="M102">
-        <v>8469973</v>
+        <v>8469972</v>
       </c>
       <c r="N102">
         <v>7605385</v>
@@ -4190,7 +4190,7 @@
         <v>82.12000000000001</v>
       </c>
       <c r="M104">
-        <v>8353737</v>
+        <v>8353736</v>
       </c>
       <c r="N104">
         <v>7610967</v>
@@ -4231,10 +4231,10 @@
         <v>13.57</v>
       </c>
       <c r="L105">
-        <v>82.49</v>
+        <v>82.48</v>
       </c>
       <c r="M105">
-        <v>8358614</v>
+        <v>8358613</v>
       </c>
       <c r="N105">
         <v>7677889</v>
@@ -4410,7 +4410,7 @@
         <v>83.67</v>
       </c>
       <c r="M109">
-        <v>8212235</v>
+        <v>8212234</v>
       </c>
       <c r="N109">
         <v>7568310</v>
@@ -5407,7 +5407,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>936159</v>
+        <v>935885</v>
       </c>
       <c r="I132">
         <v>94</v>
@@ -5422,7 +5422,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14067706</v>
+        <v>14067432</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -5463,10 +5463,10 @@
         <v>14.91</v>
       </c>
       <c r="L133">
-        <v>99.54000000000001</v>
+        <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14470158</v>
+        <v>14469885</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -5510,7 +5510,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605794</v>
+        <v>14605520</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -5551,10 +5551,10 @@
         <v>15.11</v>
       </c>
       <c r="L135">
-        <v>100.73</v>
+        <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14691230</v>
+        <v>14690957</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -5598,7 +5598,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14867690</v>
+        <v>14867416</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -5642,7 +5642,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14862208</v>
+        <v>14861934</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -5686,7 +5686,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14671600</v>
+        <v>14671326</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -5730,7 +5730,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467825</v>
+        <v>14467551</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -5747,7 +5747,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823660</v>
+        <v>823650</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -5774,10 +5774,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14132605</v>
+        <v>14132331</v>
       </c>
       <c r="N140">
-        <v>8935496</v>
+        <v>8935486</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -5818,10 +5818,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894901</v>
+        <v>13894627</v>
       </c>
       <c r="N141">
-        <v>8782011</v>
+        <v>8782001</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -5862,10 +5862,10 @@
         <v>104.15</v>
       </c>
       <c r="M142">
-        <v>13750808</v>
+        <v>13750534</v>
       </c>
       <c r="N142">
-        <v>8776279</v>
+        <v>8776269</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -5906,10 +5906,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13622677</v>
+        <v>13622403</v>
       </c>
       <c r="N143">
-        <v>8836721</v>
+        <v>8836711</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -5953,7 +5953,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042529</v>
+        <v>9042519</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -5997,7 +5997,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395149</v>
+        <v>9395139</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -6041,7 +6041,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716013</v>
+        <v>9716003</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -6085,7 +6085,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916844</v>
+        <v>9916834</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -6129,7 +6129,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176477</v>
+        <v>10176467</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -6173,7 +6173,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402058</v>
+        <v>10402048</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -6217,7 +6217,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586458</v>
+        <v>10586448</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -6261,7 +6261,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834371</v>
+        <v>10834361</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -7771,7 +7771,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590478</v>
+        <v>590469</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -7783,7 +7783,7 @@
         <v>9067094</v>
       </c>
       <c r="H186">
-        <v>1208914</v>
+        <v>1208765</v>
       </c>
       <c r="I186">
         <v>126.92</v>
@@ -7798,10 +7798,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889703</v>
+        <v>13889555</v>
       </c>
       <c r="N186">
-        <v>8211283</v>
+        <v>8211274</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -7842,10 +7842,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13965936</v>
+        <v>13965788</v>
       </c>
       <c r="N187">
-        <v>8231274</v>
+        <v>8231265</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -7886,10 +7886,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177170</v>
+        <v>14177021</v>
       </c>
       <c r="N188">
-        <v>8311060</v>
+        <v>8311051</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -7930,10 +7930,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260477</v>
+        <v>14260329</v>
       </c>
       <c r="N189">
-        <v>8315420</v>
+        <v>8315411</v>
       </c>
       <c r="O189">
         <v>2521451</v>
@@ -7971,13 +7971,13 @@
         <v>14.06</v>
       </c>
       <c r="L190">
-        <v>126.79</v>
+        <v>126.78</v>
       </c>
       <c r="M190">
-        <v>14422805</v>
+        <v>14422656</v>
       </c>
       <c r="N190">
-        <v>8371001</v>
+        <v>8370992</v>
       </c>
       <c r="O190">
         <v>2540060</v>
@@ -7991,10 +7991,10 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573529</v>
+        <v>573526</v>
       </c>
       <c r="E191">
-        <v>207683</v>
+        <v>207680</v>
       </c>
       <c r="F191">
         <v>9966680</v>
@@ -8003,7 +8003,7 @@
         <v>8715190</v>
       </c>
       <c r="H191">
-        <v>1073060</v>
+        <v>1073025</v>
       </c>
       <c r="I191">
         <v>129.49</v>
@@ -8018,13 +8018,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14527962</v>
+        <v>14527779</v>
       </c>
       <c r="N191">
-        <v>8368504</v>
+        <v>8368492</v>
       </c>
       <c r="O191">
-        <v>2551099</v>
+        <v>2551096</v>
       </c>
     </row>
     <row r="192">
@@ -8062,13 +8062,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532737</v>
+        <v>14532554</v>
       </c>
       <c r="N192">
-        <v>8290078</v>
+        <v>8290066</v>
       </c>
       <c r="O192">
-        <v>2547721</v>
+        <v>2547718</v>
       </c>
     </row>
     <row r="193">
@@ -8106,13 +8106,13 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761260</v>
+        <v>14761077</v>
       </c>
       <c r="N193">
-        <v>8365170</v>
+        <v>8365158</v>
       </c>
       <c r="O193">
-        <v>2572369</v>
+        <v>2572366</v>
       </c>
     </row>
     <row r="194">
@@ -8150,13 +8150,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14843941</v>
+        <v>14843758</v>
       </c>
       <c r="N194">
-        <v>8388057</v>
+        <v>8388045</v>
       </c>
       <c r="O194">
-        <v>2570169</v>
+        <v>2570166</v>
       </c>
     </row>
     <row r="195">
@@ -8194,13 +8194,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14888871</v>
+        <v>14888688</v>
       </c>
       <c r="N195">
-        <v>8325529</v>
+        <v>8325517</v>
       </c>
       <c r="O195">
-        <v>2571058</v>
+        <v>2571055</v>
       </c>
     </row>
     <row r="196">
@@ -8235,16 +8235,16 @@
         <v>14.32</v>
       </c>
       <c r="L196">
-        <v>130.2</v>
+        <v>130.19</v>
       </c>
       <c r="M196">
-        <v>14967553</v>
+        <v>14967370</v>
       </c>
       <c r="N196">
-        <v>8320025</v>
+        <v>8320013</v>
       </c>
       <c r="O196">
-        <v>2563132</v>
+        <v>2563129</v>
       </c>
     </row>
     <row r="197">
@@ -8282,13 +8282,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089698</v>
+        <v>15089514</v>
       </c>
       <c r="N197">
-        <v>8341489</v>
+        <v>8341477</v>
       </c>
       <c r="O197">
-        <v>2566587</v>
+        <v>2566584</v>
       </c>
     </row>
     <row r="198">
@@ -8326,13 +8326,13 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141509</v>
+        <v>15141474</v>
       </c>
       <c r="N198">
-        <v>8330289</v>
+        <v>8330286</v>
       </c>
       <c r="O198">
-        <v>2567388</v>
+        <v>2567385</v>
       </c>
     </row>
     <row r="199">
@@ -8370,13 +8370,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309053</v>
+        <v>15309018</v>
       </c>
       <c r="N199">
-        <v>8356537</v>
+        <v>8356534</v>
       </c>
       <c r="O199">
-        <v>2587943</v>
+        <v>2587940</v>
       </c>
     </row>
     <row r="200">
@@ -8414,13 +8414,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440662</v>
+        <v>15440628</v>
       </c>
       <c r="N200">
-        <v>8350556</v>
+        <v>8350553</v>
       </c>
       <c r="O200">
-        <v>2599996</v>
+        <v>2599993</v>
       </c>
     </row>
     <row r="201">
@@ -8434,7 +8434,7 @@
         <v>649662</v>
       </c>
       <c r="E201">
-        <v>210443</v>
+        <v>210444</v>
       </c>
       <c r="F201">
         <v>10189513</v>
@@ -8455,16 +8455,16 @@
         <v>14.4</v>
       </c>
       <c r="L201">
-        <v>133.49</v>
+        <v>133.48</v>
       </c>
       <c r="M201">
-        <v>15510437</v>
+        <v>15510402</v>
       </c>
       <c r="N201">
-        <v>8368299</v>
+        <v>8368296</v>
       </c>
       <c r="O201">
-        <v>2605573</v>
+        <v>2605571</v>
       </c>
     </row>
     <row r="202">
@@ -8502,13 +8502,13 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673747</v>
+        <v>15673712</v>
       </c>
       <c r="N202">
-        <v>8381856</v>
+        <v>8381853</v>
       </c>
       <c r="O202">
-        <v>2635485</v>
+        <v>2635483</v>
       </c>
     </row>
     <row r="203">
@@ -8552,7 +8552,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650975</v>
+        <v>2650976</v>
       </c>
     </row>
     <row r="204">
@@ -8596,7 +8596,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658797</v>
+        <v>2658798</v>
       </c>
     </row>
     <row r="205">
@@ -8640,7 +8640,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687346</v>
+        <v>2687347</v>
       </c>
     </row>
     <row r="206">
@@ -8684,7 +8684,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682400</v>
+        <v>2682401</v>
       </c>
     </row>
     <row r="207">
@@ -8728,7 +8728,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694751</v>
+        <v>2694752</v>
       </c>
     </row>
     <row r="208">
@@ -8772,7 +8772,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719334</v>
+        <v>2719335</v>
       </c>
     </row>
     <row r="209">
@@ -8816,7 +8816,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707776</v>
+        <v>2707777</v>
       </c>
     </row>
     <row r="210">
@@ -8860,7 +8860,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680341</v>
+        <v>2680342</v>
       </c>
     </row>
     <row r="211">
@@ -8904,7 +8904,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671978</v>
+        <v>2671979</v>
       </c>
     </row>
     <row r="212">
@@ -8948,7 +8948,7 @@
         <v>7781838</v>
       </c>
       <c r="O212">
-        <v>2637236</v>
+        <v>2637237</v>
       </c>
     </row>
     <row r="213">
@@ -26850,7 +26850,7 @@
         <v>43921</v>
       </c>
       <c r="B604">
-        <v>11769240</v>
+        <v>11768425</v>
       </c>
       <c r="C604">
         <v>2232.5</v>
@@ -26859,16 +26859,16 @@
         <v>1709565</v>
       </c>
       <c r="E604">
-        <v>164910</v>
+        <v>164890</v>
       </c>
       <c r="F604">
-        <v>14907682</v>
+        <v>14906507</v>
       </c>
       <c r="G604">
-        <v>10615357</v>
+        <v>10615345</v>
       </c>
       <c r="H604">
-        <v>3891902</v>
+        <v>3891899</v>
       </c>
       <c r="I604">
         <v>377.93</v>
@@ -26883,13 +26883,13 @@
         <v>372.85</v>
       </c>
       <c r="M604">
-        <v>28616691</v>
+        <v>28616688</v>
       </c>
       <c r="N604">
         <v>6427367</v>
       </c>
       <c r="O604">
-        <v>1773972</v>
+        <v>1773952</v>
       </c>
     </row>
     <row r="605">
@@ -26897,25 +26897,25 @@
         <v>43951</v>
       </c>
       <c r="B605">
-        <v>17632868</v>
+        <v>17631547</v>
       </c>
       <c r="C605">
         <v>17346.7</v>
       </c>
       <c r="D605">
-        <v>12201277</v>
+        <v>12201281</v>
       </c>
       <c r="E605">
-        <v>206161</v>
+        <v>206118</v>
       </c>
       <c r="F605">
-        <v>66125880</v>
+        <v>66122705</v>
       </c>
       <c r="G605">
-        <v>55715641</v>
+        <v>55715631</v>
       </c>
       <c r="H605">
-        <v>18338671</v>
+        <v>18338675</v>
       </c>
       <c r="I605">
         <v>334.26</v>
@@ -26930,13 +26930,13 @@
         <v>356.14</v>
       </c>
       <c r="M605">
-        <v>44516864</v>
+        <v>44516865</v>
       </c>
       <c r="N605">
-        <v>18275692</v>
+        <v>18275696</v>
       </c>
       <c r="O605">
-        <v>1812735</v>
+        <v>1812672</v>
       </c>
     </row>
     <row r="606">
@@ -26944,25 +26944,25 @@
         <v>43982</v>
       </c>
       <c r="B606">
-        <v>9283434</v>
+        <v>9282648</v>
       </c>
       <c r="C606">
         <v>18746</v>
       </c>
       <c r="D606">
-        <v>5760517</v>
+        <v>5760519</v>
       </c>
       <c r="E606">
-        <v>263886</v>
+        <v>263850</v>
       </c>
       <c r="F606">
-        <v>87031320</v>
+        <v>87028159</v>
       </c>
       <c r="G606">
-        <v>76904907</v>
+        <v>76904875</v>
       </c>
       <c r="H606">
-        <v>23754356</v>
+        <v>23754361</v>
       </c>
       <c r="I606">
         <v>319.43</v>
@@ -26977,13 +26977,13 @@
         <v>341.8</v>
       </c>
       <c r="M606">
-        <v>66265409</v>
+        <v>66265415</v>
       </c>
       <c r="N606">
-        <v>23685029</v>
+        <v>23685035</v>
       </c>
       <c r="O606">
-        <v>1925972</v>
+        <v>1925873</v>
       </c>
     </row>
     <row r="607">
@@ -26991,25 +26991,25 @@
         <v>44012</v>
       </c>
       <c r="B607">
-        <v>6650692</v>
+        <v>6650010</v>
       </c>
       <c r="C607">
         <v>17052.6</v>
       </c>
       <c r="D607">
-        <v>3163674</v>
+        <v>3163671</v>
       </c>
       <c r="E607">
-        <v>605364</v>
+        <v>605297</v>
       </c>
       <c r="F607">
-        <v>77521310</v>
+        <v>77520547</v>
       </c>
       <c r="G607">
-        <v>75658953</v>
+        <v>75658920</v>
       </c>
       <c r="H607">
-        <v>22138432</v>
+        <v>22138430</v>
       </c>
       <c r="I607">
         <v>305.91</v>
@@ -27024,13 +27024,13 @@
         <v>331.49</v>
       </c>
       <c r="M607">
-        <v>86487991</v>
+        <v>86487995</v>
       </c>
       <c r="N607">
-        <v>26483303</v>
+        <v>26483306</v>
       </c>
       <c r="O607">
-        <v>2392651</v>
+        <v>2392485</v>
       </c>
     </row>
     <row r="608">
@@ -27038,25 +27038,25 @@
         <v>44043</v>
       </c>
       <c r="B608">
-        <v>5952705</v>
+        <v>5952294</v>
       </c>
       <c r="C608">
         <v>16315.1</v>
       </c>
       <c r="D608">
-        <v>2163838</v>
+        <v>2163842</v>
       </c>
       <c r="E608">
-        <v>950158</v>
+        <v>950127</v>
       </c>
       <c r="F608">
-        <v>68602070</v>
+        <v>68598900</v>
       </c>
       <c r="G608">
-        <v>64868385</v>
+        <v>64868374</v>
       </c>
       <c r="H608">
-        <v>18662865</v>
+        <v>18662874</v>
       </c>
       <c r="I608">
         <v>303.85</v>
@@ -27071,13 +27071,13 @@
         <v>325.7</v>
       </c>
       <c r="M608">
-        <v>102836944</v>
+        <v>102836957</v>
       </c>
       <c r="N608">
-        <v>28174614</v>
+        <v>28174621</v>
       </c>
       <c r="O608">
-        <v>3184761</v>
+        <v>3184564</v>
       </c>
     </row>
     <row r="609">
@@ -27085,7 +27085,7 @@
         <v>44074</v>
       </c>
       <c r="B609">
-        <v>3754528</v>
+        <v>3754231</v>
       </c>
       <c r="C609">
         <v>14100.6</v>
@@ -27094,16 +27094,16 @@
         <v>1322867</v>
       </c>
       <c r="E609">
-        <v>1066604</v>
+        <v>1066623</v>
       </c>
       <c r="F609">
-        <v>63219468</v>
+        <v>63217369</v>
       </c>
       <c r="G609">
-        <v>56553382</v>
+        <v>56553372</v>
       </c>
       <c r="H609">
-        <v>16358572</v>
+        <v>16358566</v>
       </c>
       <c r="I609">
         <v>303.9</v>
@@ -27118,13 +27118,13 @@
         <v>322.02</v>
       </c>
       <c r="M609">
-        <v>117204480</v>
+        <v>117204487</v>
       </c>
       <c r="N609">
-        <v>29141306</v>
+        <v>29141313</v>
       </c>
       <c r="O609">
-        <v>4115422</v>
+        <v>4115244</v>
       </c>
     </row>
     <row r="610">
@@ -27132,31 +27132,31 @@
         <v>44104</v>
       </c>
       <c r="B610">
-        <v>3499689</v>
+        <v>3499403</v>
       </c>
       <c r="C610">
         <v>12431.1</v>
       </c>
       <c r="D610">
-        <v>913791</v>
+        <v>913794</v>
       </c>
       <c r="E610">
-        <v>3056341</v>
+        <v>3056261</v>
       </c>
       <c r="F610">
-        <v>49206838</v>
+        <v>49205690</v>
       </c>
       <c r="G610">
-        <v>46146973</v>
+        <v>46146982</v>
       </c>
       <c r="H610">
-        <v>13636573</v>
+        <v>13636582</v>
       </c>
       <c r="I610">
         <v>311.59</v>
       </c>
       <c r="J610">
-        <v>109.42</v>
+        <v>109.41</v>
       </c>
       <c r="K610">
         <v>14.09</v>
@@ -27165,13 +27165,13 @@
         <v>320.27</v>
       </c>
       <c r="M610">
-        <v>128896991</v>
+        <v>128897007</v>
       </c>
       <c r="N610">
-        <v>29743907</v>
+        <v>29743917</v>
       </c>
       <c r="O610">
-        <v>7032526</v>
+        <v>7032268</v>
       </c>
     </row>
     <row r="611">
@@ -27179,25 +27179,25 @@
         <v>44135</v>
       </c>
       <c r="B611">
-        <v>3454273</v>
+        <v>3452808</v>
       </c>
       <c r="C611">
         <v>7612.8</v>
       </c>
       <c r="D611">
-        <v>762364</v>
+        <v>762363</v>
       </c>
       <c r="E611">
-        <v>2435546</v>
+        <v>2435370</v>
       </c>
       <c r="F611">
-        <v>32123268</v>
+        <v>32121929</v>
       </c>
       <c r="G611">
-        <v>28459956</v>
+        <v>28459952</v>
       </c>
       <c r="H611">
-        <v>8377585</v>
+        <v>8377586</v>
       </c>
       <c r="I611">
         <v>316.25</v>
@@ -27212,13 +27212,13 @@
         <v>319.36</v>
       </c>
       <c r="M611">
-        <v>135364585</v>
+        <v>135364602</v>
       </c>
       <c r="N611">
-        <v>30141899</v>
+        <v>30141908</v>
       </c>
       <c r="O611">
-        <v>9326452</v>
+        <v>9326018</v>
       </c>
     </row>
     <row r="612">
@@ -27226,7 +27226,7 @@
         <v>44165</v>
       </c>
       <c r="B612">
-        <v>3436702</v>
+        <v>3435891</v>
       </c>
       <c r="C612">
         <v>6136</v>
@@ -27235,16 +27235,16 @@
         <v>742717</v>
       </c>
       <c r="E612">
-        <v>1329892</v>
+        <v>1329838</v>
       </c>
       <c r="F612">
-        <v>26461549</v>
+        <v>26459098</v>
       </c>
       <c r="G612">
-        <v>21945627</v>
+        <v>21945623</v>
       </c>
       <c r="H612">
-        <v>6701818</v>
+        <v>6701817</v>
       </c>
       <c r="I612">
         <v>330.1</v>
@@ -27259,13 +27259,13 @@
         <v>319.19</v>
       </c>
       <c r="M612">
-        <v>140240338</v>
+        <v>140240353</v>
       </c>
       <c r="N612">
-        <v>30517970</v>
+        <v>30517979</v>
       </c>
       <c r="O612">
-        <v>10528441</v>
+        <v>10527953</v>
       </c>
     </row>
     <row r="613">
@@ -27273,25 +27273,25 @@
         <v>44196</v>
       </c>
       <c r="B613">
-        <v>4226107</v>
+        <v>4225390</v>
       </c>
       <c r="C613">
         <v>5655.4</v>
       </c>
       <c r="D613">
-        <v>874957</v>
+        <v>874958</v>
       </c>
       <c r="E613">
-        <v>1042565</v>
+        <v>1042516</v>
       </c>
       <c r="F613">
-        <v>23050860</v>
+        <v>23049165</v>
       </c>
       <c r="G613">
-        <v>20380363</v>
+        <v>20380357</v>
       </c>
       <c r="H613">
-        <v>6405711</v>
+        <v>6405718</v>
       </c>
       <c r="I613">
         <v>339.09</v>
@@ -27306,13 +27306,107 @@
         <v>319.02</v>
       </c>
       <c r="M613">
-        <v>143966702</v>
+        <v>143966724</v>
       </c>
       <c r="N613">
-        <v>30831490</v>
+        <v>30831500</v>
       </c>
       <c r="O613">
-        <v>11412095</v>
+        <v>11411558</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B614">
+        <v>4612118</v>
+      </c>
+      <c r="C614">
+        <v>5366.6</v>
+      </c>
+      <c r="D614">
+        <v>923321</v>
+      </c>
+      <c r="E614">
+        <v>834217</v>
+      </c>
+      <c r="F614">
+        <v>22888932</v>
+      </c>
+      <c r="G614">
+        <v>17873610</v>
+      </c>
+      <c r="H614">
+        <v>5746176</v>
+      </c>
+      <c r="I614">
+        <v>346.46</v>
+      </c>
+      <c r="J614">
+        <v>42.92</v>
+      </c>
+      <c r="K614">
+        <v>15.55</v>
+      </c>
+      <c r="L614">
+        <v>318.87</v>
+      </c>
+      <c r="M614">
+        <v>146765730</v>
+      </c>
+      <c r="N614">
+        <v>31018328</v>
+      </c>
+      <c r="O614">
+        <v>12093755</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2">
+        <v>44255</v>
+      </c>
+      <c r="B615">
+        <v>3457065</v>
+      </c>
+      <c r="C615">
+        <v>5719.333333333333</v>
+      </c>
+      <c r="D615">
+        <v>777465</v>
+      </c>
+      <c r="E615">
+        <v>1068857</v>
+      </c>
+      <c r="F615">
+        <v>19067992</v>
+      </c>
+      <c r="G615">
+        <v>16093068</v>
+      </c>
+      <c r="H615">
+        <v>5161117</v>
+      </c>
+      <c r="I615">
+        <v>349.35</v>
+      </c>
+      <c r="J615">
+        <v>43.23</v>
+      </c>
+      <c r="K615">
+        <v>15.69</v>
+      </c>
+      <c r="L615">
+        <v>318.76</v>
+      </c>
+      <c r="M615">
+        <v>149173800</v>
+      </c>
+      <c r="N615">
+        <v>31316363</v>
+      </c>
+      <c r="O615">
+        <v>12598111</v>
       </c>
     </row>
   </sheetData>

--- a/data/supplementary/monthly_state_ui.xlsx
+++ b/data/supplementary/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O615"/>
+  <dimension ref="A1:O616"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3911,7 +3911,7 @@
         <v>12152139</v>
       </c>
       <c r="H98">
-        <v>904864</v>
+        <v>904863</v>
       </c>
       <c r="I98">
         <v>104.65</v>
@@ -3926,7 +3926,7 @@
         <v>79.33</v>
       </c>
       <c r="M98">
-        <v>8643086</v>
+        <v>8643085</v>
       </c>
       <c r="N98">
         <v>7816720</v>
@@ -3970,7 +3970,7 @@
         <v>79.84</v>
       </c>
       <c r="M99">
-        <v>8586173</v>
+        <v>8586172</v>
       </c>
       <c r="N99">
         <v>7675188</v>
@@ -4014,7 +4014,7 @@
         <v>80.49</v>
       </c>
       <c r="M100">
-        <v>8552546</v>
+        <v>8552545</v>
       </c>
       <c r="N100">
         <v>7655474</v>
@@ -4058,7 +4058,7 @@
         <v>80.95</v>
       </c>
       <c r="M101">
-        <v>8496270</v>
+        <v>8496269</v>
       </c>
       <c r="N101">
         <v>7630816</v>
@@ -4102,7 +4102,7 @@
         <v>81.34999999999999</v>
       </c>
       <c r="M102">
-        <v>8469972</v>
+        <v>8469971</v>
       </c>
       <c r="N102">
         <v>7605385</v>
@@ -4146,7 +4146,7 @@
         <v>81.74</v>
       </c>
       <c r="M103">
-        <v>8390311</v>
+        <v>8390310</v>
       </c>
       <c r="N103">
         <v>7610191</v>
@@ -4190,7 +4190,7 @@
         <v>82.12000000000001</v>
       </c>
       <c r="M104">
-        <v>8353736</v>
+        <v>8353735</v>
       </c>
       <c r="N104">
         <v>7610967</v>
@@ -4234,7 +4234,7 @@
         <v>82.48</v>
       </c>
       <c r="M105">
-        <v>8358613</v>
+        <v>8358612</v>
       </c>
       <c r="N105">
         <v>7677889</v>
@@ -4278,7 +4278,7 @@
         <v>82.78</v>
       </c>
       <c r="M106">
-        <v>8313956</v>
+        <v>8313955</v>
       </c>
       <c r="N106">
         <v>7636142</v>
@@ -4322,7 +4322,7 @@
         <v>83.03</v>
       </c>
       <c r="M107">
-        <v>8307251</v>
+        <v>8307250</v>
       </c>
       <c r="N107">
         <v>7633029</v>
@@ -4366,7 +4366,7 @@
         <v>83.3</v>
       </c>
       <c r="M108">
-        <v>8263900</v>
+        <v>8263899</v>
       </c>
       <c r="N108">
         <v>7603593</v>
@@ -4410,7 +4410,7 @@
         <v>83.67</v>
       </c>
       <c r="M109">
-        <v>8212234</v>
+        <v>8212233</v>
       </c>
       <c r="N109">
         <v>7568310</v>
@@ -5407,7 +5407,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935885</v>
+        <v>935498</v>
       </c>
       <c r="I132">
         <v>94</v>
@@ -5422,7 +5422,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14067432</v>
+        <v>14067045</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -5466,7 +5466,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469885</v>
+        <v>14469497</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -5510,7 +5510,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605520</v>
+        <v>14605132</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -5554,7 +5554,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690957</v>
+        <v>14690569</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -5598,7 +5598,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14867416</v>
+        <v>14867028</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -5642,7 +5642,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861934</v>
+        <v>14861547</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -5686,7 +5686,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14671326</v>
+        <v>14670938</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -5730,7 +5730,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467551</v>
+        <v>14467163</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -5747,7 +5747,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823650</v>
+        <v>823632</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -5774,10 +5774,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14132331</v>
+        <v>14131943</v>
       </c>
       <c r="N140">
-        <v>8935486</v>
+        <v>8935468</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -5818,10 +5818,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894627</v>
+        <v>13894240</v>
       </c>
       <c r="N141">
-        <v>8782001</v>
+        <v>8781983</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -5859,13 +5859,13 @@
         <v>15.43</v>
       </c>
       <c r="L142">
-        <v>104.15</v>
+        <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750534</v>
+        <v>13750146</v>
       </c>
       <c r="N142">
-        <v>8776269</v>
+        <v>8776251</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -5906,10 +5906,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13622403</v>
+        <v>13622015</v>
       </c>
       <c r="N143">
-        <v>8836711</v>
+        <v>8836693</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -5953,7 +5953,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042519</v>
+        <v>9042501</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -5997,7 +5997,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395139</v>
+        <v>9395121</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -6041,7 +6041,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9716003</v>
+        <v>9715985</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -6085,7 +6085,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916834</v>
+        <v>9916816</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -6129,7 +6129,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176467</v>
+        <v>10176449</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -6173,7 +6173,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402048</v>
+        <v>10402030</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -6217,7 +6217,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586448</v>
+        <v>10586430</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -6261,7 +6261,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834361</v>
+        <v>10834343</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -7771,7 +7771,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590469</v>
+        <v>590445</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -7783,7 +7783,7 @@
         <v>9067094</v>
       </c>
       <c r="H186">
-        <v>1208765</v>
+        <v>1208607</v>
       </c>
       <c r="I186">
         <v>126.92</v>
@@ -7798,10 +7798,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889555</v>
+        <v>13889397</v>
       </c>
       <c r="N186">
-        <v>8211274</v>
+        <v>8211250</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -7842,10 +7842,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13965788</v>
+        <v>13965630</v>
       </c>
       <c r="N187">
-        <v>8231265</v>
+        <v>8231241</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -7886,10 +7886,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177021</v>
+        <v>14176863</v>
       </c>
       <c r="N188">
-        <v>8311051</v>
+        <v>8311027</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -7930,10 +7930,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260329</v>
+        <v>14260171</v>
       </c>
       <c r="N189">
-        <v>8315411</v>
+        <v>8315387</v>
       </c>
       <c r="O189">
         <v>2521451</v>
@@ -7974,10 +7974,10 @@
         <v>126.78</v>
       </c>
       <c r="M190">
-        <v>14422656</v>
+        <v>14422498</v>
       </c>
       <c r="N190">
-        <v>8370992</v>
+        <v>8370968</v>
       </c>
       <c r="O190">
         <v>2540060</v>
@@ -7991,10 +7991,10 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573526</v>
+        <v>573525</v>
       </c>
       <c r="E191">
-        <v>207680</v>
+        <v>207676</v>
       </c>
       <c r="F191">
         <v>9966680</v>
@@ -8003,7 +8003,7 @@
         <v>8715190</v>
       </c>
       <c r="H191">
-        <v>1073025</v>
+        <v>1072983</v>
       </c>
       <c r="I191">
         <v>129.49</v>
@@ -8018,13 +8018,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14527779</v>
+        <v>14527578</v>
       </c>
       <c r="N191">
-        <v>8368492</v>
+        <v>8368467</v>
       </c>
       <c r="O191">
-        <v>2551096</v>
+        <v>2551092</v>
       </c>
     </row>
     <row r="192">
@@ -8062,13 +8062,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532554</v>
+        <v>14532353</v>
       </c>
       <c r="N192">
-        <v>8290066</v>
+        <v>8290041</v>
       </c>
       <c r="O192">
-        <v>2547718</v>
+        <v>2547714</v>
       </c>
     </row>
     <row r="193">
@@ -8103,16 +8103,16 @@
         <v>14.26</v>
       </c>
       <c r="L193">
-        <v>128.14</v>
+        <v>128.13</v>
       </c>
       <c r="M193">
-        <v>14761077</v>
+        <v>14760877</v>
       </c>
       <c r="N193">
-        <v>8365158</v>
+        <v>8365133</v>
       </c>
       <c r="O193">
-        <v>2572366</v>
+        <v>2572362</v>
       </c>
     </row>
     <row r="194">
@@ -8150,13 +8150,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14843758</v>
+        <v>14843557</v>
       </c>
       <c r="N194">
-        <v>8388045</v>
+        <v>8388020</v>
       </c>
       <c r="O194">
-        <v>2570166</v>
+        <v>2570162</v>
       </c>
     </row>
     <row r="195">
@@ -8194,13 +8194,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14888688</v>
+        <v>14888488</v>
       </c>
       <c r="N195">
-        <v>8325517</v>
+        <v>8325492</v>
       </c>
       <c r="O195">
-        <v>2571055</v>
+        <v>2571051</v>
       </c>
     </row>
     <row r="196">
@@ -8238,13 +8238,13 @@
         <v>130.19</v>
       </c>
       <c r="M196">
-        <v>14967370</v>
+        <v>14967170</v>
       </c>
       <c r="N196">
-        <v>8320013</v>
+        <v>8319988</v>
       </c>
       <c r="O196">
-        <v>2563129</v>
+        <v>2563125</v>
       </c>
     </row>
     <row r="197">
@@ -8282,13 +8282,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089514</v>
+        <v>15089314</v>
       </c>
       <c r="N197">
-        <v>8341477</v>
+        <v>8341452</v>
       </c>
       <c r="O197">
-        <v>2566584</v>
+        <v>2566580</v>
       </c>
     </row>
     <row r="198">
@@ -8326,13 +8326,13 @@
         <v>131.55</v>
       </c>
       <c r="M198">
-        <v>15141474</v>
+        <v>15141432</v>
       </c>
       <c r="N198">
-        <v>8330286</v>
+        <v>8330285</v>
       </c>
       <c r="O198">
-        <v>2567385</v>
+        <v>2567381</v>
       </c>
     </row>
     <row r="199">
@@ -8346,7 +8346,7 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214631</v>
+        <v>214625</v>
       </c>
       <c r="F199">
         <v>10193543</v>
@@ -8370,13 +8370,13 @@
         <v>132.19</v>
       </c>
       <c r="M199">
-        <v>15309018</v>
+        <v>15308976</v>
       </c>
       <c r="N199">
-        <v>8356534</v>
+        <v>8356533</v>
       </c>
       <c r="O199">
-        <v>2587940</v>
+        <v>2587930</v>
       </c>
     </row>
     <row r="200">
@@ -8414,13 +8414,13 @@
         <v>132.87</v>
       </c>
       <c r="M200">
-        <v>15440628</v>
+        <v>15440585</v>
       </c>
       <c r="N200">
-        <v>8350553</v>
+        <v>8350552</v>
       </c>
       <c r="O200">
-        <v>2599993</v>
+        <v>2599983</v>
       </c>
     </row>
     <row r="201">
@@ -8434,7 +8434,7 @@
         <v>649662</v>
       </c>
       <c r="E201">
-        <v>210444</v>
+        <v>210445</v>
       </c>
       <c r="F201">
         <v>10189513</v>
@@ -8458,13 +8458,13 @@
         <v>133.48</v>
       </c>
       <c r="M201">
-        <v>15510402</v>
+        <v>15510360</v>
       </c>
       <c r="N201">
-        <v>8368296</v>
+        <v>8368295</v>
       </c>
       <c r="O201">
-        <v>2605571</v>
+        <v>2605562</v>
       </c>
     </row>
     <row r="202">
@@ -8502,13 +8502,13 @@
         <v>134.04</v>
       </c>
       <c r="M202">
-        <v>15673712</v>
+        <v>15673670</v>
       </c>
       <c r="N202">
-        <v>8381853</v>
+        <v>8381852</v>
       </c>
       <c r="O202">
-        <v>2635483</v>
+        <v>2635474</v>
       </c>
     </row>
     <row r="203">
@@ -8552,7 +8552,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650976</v>
+        <v>2650971</v>
       </c>
     </row>
     <row r="204">
@@ -8596,7 +8596,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658798</v>
+        <v>2658793</v>
       </c>
     </row>
     <row r="205">
@@ -8640,7 +8640,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687347</v>
+        <v>2687342</v>
       </c>
     </row>
     <row r="206">
@@ -8684,7 +8684,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682401</v>
+        <v>2682396</v>
       </c>
     </row>
     <row r="207">
@@ -8728,7 +8728,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694752</v>
+        <v>2694747</v>
       </c>
     </row>
     <row r="208">
@@ -8772,7 +8772,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719335</v>
+        <v>2719330</v>
       </c>
     </row>
     <row r="209">
@@ -8816,7 +8816,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707777</v>
+        <v>2707772</v>
       </c>
     </row>
     <row r="210">
@@ -8860,7 +8860,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680342</v>
+        <v>2680337</v>
       </c>
     </row>
     <row r="211">
@@ -8904,7 +8904,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671979</v>
+        <v>2671980</v>
       </c>
     </row>
     <row r="212">
@@ -8948,7 +8948,7 @@
         <v>7781838</v>
       </c>
       <c r="O212">
-        <v>2637237</v>
+        <v>2637238</v>
       </c>
     </row>
     <row r="213">
@@ -26897,46 +26897,46 @@
         <v>43951</v>
       </c>
       <c r="B605">
-        <v>17631547</v>
+        <v>17624674</v>
       </c>
       <c r="C605">
         <v>17346.7</v>
       </c>
       <c r="D605">
-        <v>12201281</v>
+        <v>12227308</v>
       </c>
       <c r="E605">
-        <v>206118</v>
+        <v>206020</v>
       </c>
       <c r="F605">
-        <v>66122705</v>
+        <v>66075737</v>
       </c>
       <c r="G605">
-        <v>55715631</v>
+        <v>55690467</v>
       </c>
       <c r="H605">
-        <v>18338675</v>
+        <v>18332275</v>
       </c>
       <c r="I605">
-        <v>334.26</v>
+        <v>334.29</v>
       </c>
       <c r="J605">
         <v>35.66</v>
       </c>
       <c r="K605">
-        <v>6.99</v>
+        <v>6.98</v>
       </c>
       <c r="L605">
-        <v>356.14</v>
+        <v>356.16</v>
       </c>
       <c r="M605">
-        <v>44516865</v>
+        <v>44510465</v>
       </c>
       <c r="N605">
-        <v>18275696</v>
+        <v>18301723</v>
       </c>
       <c r="O605">
-        <v>1812672</v>
+        <v>1812574</v>
       </c>
     </row>
     <row r="606">
@@ -26944,46 +26944,46 @@
         <v>43982</v>
       </c>
       <c r="B606">
-        <v>9282648</v>
+        <v>9279282</v>
       </c>
       <c r="C606">
         <v>18746</v>
       </c>
       <c r="D606">
-        <v>5760519</v>
+        <v>5756570</v>
       </c>
       <c r="E606">
-        <v>263850</v>
+        <v>262760</v>
       </c>
       <c r="F606">
-        <v>87028159</v>
+        <v>87020528</v>
       </c>
       <c r="G606">
-        <v>76904875</v>
+        <v>76814427</v>
       </c>
       <c r="H606">
-        <v>23754361</v>
+        <v>23726957</v>
       </c>
       <c r="I606">
-        <v>319.43</v>
+        <v>319.44</v>
       </c>
       <c r="J606">
-        <v>38.04</v>
+        <v>38.01</v>
       </c>
       <c r="K606">
-        <v>8.41</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="L606">
-        <v>341.8</v>
+        <v>341.82</v>
       </c>
       <c r="M606">
-        <v>66265415</v>
+        <v>66231612</v>
       </c>
       <c r="N606">
-        <v>23685035</v>
+        <v>23707113</v>
       </c>
       <c r="O606">
-        <v>1925873</v>
+        <v>1924685</v>
       </c>
     </row>
     <row r="607">
@@ -26991,46 +26991,46 @@
         <v>44012</v>
       </c>
       <c r="B607">
-        <v>6650010</v>
+        <v>6646792</v>
       </c>
       <c r="C607">
         <v>17052.6</v>
       </c>
       <c r="D607">
-        <v>3163671</v>
+        <v>3159178</v>
       </c>
       <c r="E607">
-        <v>605297</v>
+        <v>606117</v>
       </c>
       <c r="F607">
-        <v>77520547</v>
+        <v>77536350</v>
       </c>
       <c r="G607">
-        <v>75658920</v>
+        <v>75533295</v>
       </c>
       <c r="H607">
-        <v>22138430</v>
+        <v>22100209</v>
       </c>
       <c r="I607">
-        <v>305.91</v>
+        <v>305.89</v>
       </c>
       <c r="J607">
-        <v>46.68</v>
+        <v>46.67</v>
       </c>
       <c r="K607">
-        <v>10.17</v>
+        <v>10.15</v>
       </c>
       <c r="L607">
-        <v>331.49</v>
+        <v>331.51</v>
       </c>
       <c r="M607">
-        <v>86487995</v>
+        <v>86415971</v>
       </c>
       <c r="N607">
-        <v>26483306</v>
+        <v>26500891</v>
       </c>
       <c r="O607">
-        <v>2392485</v>
+        <v>2392117</v>
       </c>
     </row>
     <row r="608">
@@ -27038,46 +27038,46 @@
         <v>44043</v>
       </c>
       <c r="B608">
-        <v>5952294</v>
+        <v>5948513</v>
       </c>
       <c r="C608">
         <v>16315.1</v>
       </c>
       <c r="D608">
-        <v>2163842</v>
+        <v>2156113</v>
       </c>
       <c r="E608">
-        <v>950127</v>
+        <v>949812</v>
       </c>
       <c r="F608">
-        <v>68598900</v>
+        <v>68581507</v>
       </c>
       <c r="G608">
-        <v>64868374</v>
+        <v>64794858</v>
       </c>
       <c r="H608">
-        <v>18662874</v>
+        <v>18646590</v>
       </c>
       <c r="I608">
-        <v>303.85</v>
+        <v>303.93</v>
       </c>
       <c r="J608">
-        <v>62.24</v>
+        <v>62.22</v>
       </c>
       <c r="K608">
-        <v>11.62</v>
+        <v>11.61</v>
       </c>
       <c r="L608">
-        <v>325.7</v>
+        <v>325.74</v>
       </c>
       <c r="M608">
-        <v>102836957</v>
+        <v>102748649</v>
       </c>
       <c r="N608">
-        <v>28174621</v>
+        <v>28184477</v>
       </c>
       <c r="O608">
-        <v>3184564</v>
+        <v>3183881</v>
       </c>
     </row>
     <row r="609">
@@ -27085,46 +27085,46 @@
         <v>44074</v>
       </c>
       <c r="B609">
-        <v>3754231</v>
+        <v>3749396</v>
       </c>
       <c r="C609">
         <v>14100.6</v>
       </c>
       <c r="D609">
-        <v>1322867</v>
+        <v>1314804</v>
       </c>
       <c r="E609">
-        <v>1066623</v>
+        <v>1066469</v>
       </c>
       <c r="F609">
-        <v>63217369</v>
+        <v>63189272</v>
       </c>
       <c r="G609">
-        <v>56553372</v>
+        <v>56487528</v>
       </c>
       <c r="H609">
-        <v>16358566</v>
+        <v>16366072</v>
       </c>
       <c r="I609">
-        <v>303.9</v>
+        <v>304.38</v>
       </c>
       <c r="J609">
-        <v>80.7</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="K609">
-        <v>12.98</v>
+        <v>12.97</v>
       </c>
       <c r="L609">
-        <v>322.02</v>
+        <v>322.12</v>
       </c>
       <c r="M609">
-        <v>117204487</v>
+        <v>117123685</v>
       </c>
       <c r="N609">
-        <v>29141313</v>
+        <v>29143106</v>
       </c>
       <c r="O609">
-        <v>4115244</v>
+        <v>4114407</v>
       </c>
     </row>
     <row r="610">
@@ -27132,46 +27132,46 @@
         <v>44104</v>
       </c>
       <c r="B610">
-        <v>3499403</v>
+        <v>3494289</v>
       </c>
       <c r="C610">
         <v>12431.1</v>
       </c>
       <c r="D610">
-        <v>913794</v>
+        <v>911708</v>
       </c>
       <c r="E610">
-        <v>3056261</v>
+        <v>3082993</v>
       </c>
       <c r="F610">
-        <v>49205690</v>
+        <v>49098392</v>
       </c>
       <c r="G610">
-        <v>46146982</v>
+        <v>45873012</v>
       </c>
       <c r="H610">
-        <v>13636582</v>
+        <v>13421458</v>
       </c>
       <c r="I610">
-        <v>311.59</v>
+        <v>308.91</v>
       </c>
       <c r="J610">
-        <v>109.41</v>
+        <v>109.81</v>
       </c>
       <c r="K610">
-        <v>14.09</v>
+        <v>14.07</v>
       </c>
       <c r="L610">
-        <v>320.27</v>
+        <v>320.08</v>
       </c>
       <c r="M610">
-        <v>128897007</v>
+        <v>128601081</v>
       </c>
       <c r="N610">
-        <v>29743917</v>
+        <v>29743624</v>
       </c>
       <c r="O610">
-        <v>7032268</v>
+        <v>7058163</v>
       </c>
     </row>
     <row r="611">
@@ -27179,46 +27179,46 @@
         <v>44135</v>
       </c>
       <c r="B611">
-        <v>3452808</v>
+        <v>3449913</v>
       </c>
       <c r="C611">
         <v>7612.8</v>
       </c>
       <c r="D611">
-        <v>762363</v>
+        <v>761120</v>
       </c>
       <c r="E611">
-        <v>2435370</v>
+        <v>2433833</v>
       </c>
       <c r="F611">
-        <v>32121929</v>
+        <v>32048072</v>
       </c>
       <c r="G611">
-        <v>28459952</v>
+        <v>28413291</v>
       </c>
       <c r="H611">
-        <v>8377586</v>
+        <v>8356093</v>
       </c>
       <c r="I611">
-        <v>316.25</v>
+        <v>316</v>
       </c>
       <c r="J611">
-        <v>51.03</v>
+        <v>51.09</v>
       </c>
       <c r="K611">
-        <v>14.67</v>
+        <v>14.65</v>
       </c>
       <c r="L611">
-        <v>319.36</v>
+        <v>319.16</v>
       </c>
       <c r="M611">
-        <v>135364602</v>
+        <v>135047183</v>
       </c>
       <c r="N611">
-        <v>30141908</v>
+        <v>30140372</v>
       </c>
       <c r="O611">
-        <v>9326018</v>
+        <v>9350376</v>
       </c>
     </row>
     <row r="612">
@@ -27226,46 +27226,46 @@
         <v>44165</v>
       </c>
       <c r="B612">
-        <v>3435891</v>
+        <v>3437800</v>
       </c>
       <c r="C612">
         <v>6136</v>
       </c>
       <c r="D612">
-        <v>742717</v>
+        <v>741150</v>
       </c>
       <c r="E612">
-        <v>1329838</v>
+        <v>1329523</v>
       </c>
       <c r="F612">
-        <v>26459098</v>
+        <v>26429497</v>
       </c>
       <c r="G612">
-        <v>21945623</v>
+        <v>21910975</v>
       </c>
       <c r="H612">
-        <v>6701817</v>
+        <v>6687976</v>
       </c>
       <c r="I612">
-        <v>330.1</v>
+        <v>329.98</v>
       </c>
       <c r="J612">
-        <v>44.45</v>
+        <v>44.51</v>
       </c>
       <c r="K612">
-        <v>15.05</v>
+        <v>15.03</v>
       </c>
       <c r="L612">
-        <v>319.19</v>
+        <v>318.99</v>
       </c>
       <c r="M612">
-        <v>140240353</v>
+        <v>139909094</v>
       </c>
       <c r="N612">
-        <v>30517979</v>
+        <v>30514876</v>
       </c>
       <c r="O612">
-        <v>10527953</v>
+        <v>10551996</v>
       </c>
     </row>
     <row r="613">
@@ -27273,46 +27273,46 @@
         <v>44196</v>
       </c>
       <c r="B613">
-        <v>4225390</v>
+        <v>4226800</v>
       </c>
       <c r="C613">
         <v>5655.4</v>
       </c>
       <c r="D613">
-        <v>874958</v>
+        <v>875107</v>
       </c>
       <c r="E613">
-        <v>1042516</v>
+        <v>1041335</v>
       </c>
       <c r="F613">
-        <v>23049165</v>
+        <v>23022902</v>
       </c>
       <c r="G613">
-        <v>20380357</v>
+        <v>20350461</v>
       </c>
       <c r="H613">
-        <v>6405718</v>
+        <v>6402239</v>
       </c>
       <c r="I613">
-        <v>339.09</v>
+        <v>339.43</v>
       </c>
       <c r="J613">
-        <v>43.09</v>
+        <v>43.15</v>
       </c>
       <c r="K613">
-        <v>15.32</v>
+        <v>15.3</v>
       </c>
       <c r="L613">
-        <v>319.02</v>
+        <v>318.84</v>
       </c>
       <c r="M613">
-        <v>143966724</v>
+        <v>143631987</v>
       </c>
       <c r="N613">
-        <v>30831500</v>
+        <v>30828546</v>
       </c>
       <c r="O613">
-        <v>11411558</v>
+        <v>11434420</v>
       </c>
     </row>
     <row r="614">
@@ -27320,46 +27320,46 @@
         <v>44227</v>
       </c>
       <c r="B614">
-        <v>4612118</v>
+        <v>4607942</v>
       </c>
       <c r="C614">
         <v>5366.6</v>
       </c>
       <c r="D614">
-        <v>923321</v>
+        <v>910450</v>
       </c>
       <c r="E614">
-        <v>834217</v>
+        <v>821404</v>
       </c>
       <c r="F614">
-        <v>22888932</v>
+        <v>22604119</v>
       </c>
       <c r="G614">
-        <v>17873610</v>
+        <v>17582801</v>
       </c>
       <c r="H614">
-        <v>5746176</v>
+        <v>5641550</v>
       </c>
       <c r="I614">
-        <v>346.46</v>
+        <v>345.98</v>
       </c>
       <c r="J614">
-        <v>42.92</v>
+        <v>42.94</v>
       </c>
       <c r="K614">
-        <v>15.55</v>
+        <v>15.53</v>
       </c>
       <c r="L614">
-        <v>318.87</v>
+        <v>318.66</v>
       </c>
       <c r="M614">
-        <v>146765730</v>
+        <v>146326366</v>
       </c>
       <c r="N614">
-        <v>31018328</v>
+        <v>31002503</v>
       </c>
       <c r="O614">
-        <v>12093755</v>
+        <v>12103803</v>
       </c>
     </row>
     <row r="615">
@@ -27367,46 +27367,93 @@
         <v>44255</v>
       </c>
       <c r="B615">
-        <v>3457065</v>
+        <v>3556037</v>
       </c>
       <c r="C615">
-        <v>5719.333333333333</v>
+        <v>5029.5</v>
       </c>
       <c r="D615">
-        <v>777465</v>
+        <v>765856</v>
       </c>
       <c r="E615">
-        <v>1068857</v>
+        <v>631956</v>
       </c>
       <c r="F615">
-        <v>19067992</v>
+        <v>18841932</v>
       </c>
       <c r="G615">
-        <v>16093068</v>
+        <v>15853945</v>
       </c>
       <c r="H615">
-        <v>5161117</v>
+        <v>5075617</v>
       </c>
       <c r="I615">
-        <v>349.35</v>
+        <v>348.94</v>
       </c>
       <c r="J615">
         <v>43.23</v>
       </c>
       <c r="K615">
-        <v>15.69</v>
+        <v>15.66</v>
       </c>
       <c r="L615">
-        <v>318.76</v>
+        <v>318.52</v>
       </c>
       <c r="M615">
-        <v>149173800</v>
+        <v>148648937</v>
       </c>
       <c r="N615">
-        <v>31316363</v>
+        <v>31288929</v>
       </c>
       <c r="O615">
-        <v>12598111</v>
+        <v>12597112</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B616">
+        <v>4195650</v>
+      </c>
+      <c r="C616">
+        <v>4460.9</v>
+      </c>
+      <c r="D616">
+        <v>864422</v>
+      </c>
+      <c r="E616">
+        <v>617296</v>
+      </c>
+      <c r="F616">
+        <v>19006560</v>
+      </c>
+      <c r="G616">
+        <v>16798299</v>
+      </c>
+      <c r="H616">
+        <v>5424557</v>
+      </c>
+      <c r="I616">
+        <v>349.6</v>
+      </c>
+      <c r="J616">
+        <v>43.87</v>
+      </c>
+      <c r="K616">
+        <v>16.3</v>
+      </c>
+      <c r="L616">
+        <v>318.22</v>
+      </c>
+      <c r="M616">
+        <v>150181595</v>
+      </c>
+      <c r="N616">
+        <v>30443786</v>
+      </c>
+      <c r="O616">
+        <v>13049518</v>
       </c>
     </row>
   </sheetData>
